--- a/01_references/ref_lst.xlsx
+++ b/01_references/ref_lst.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dropbox\01_norskov\01_projects\04_irox_oer_orr\02_lit_refs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dropbox\01_norskov\00_git_repos\PAPER_IrOx_Active_Learning_OER\01_references\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0975DCD-3493-4BC2-B1FA-8D851F78390C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1D2109-15DF-4BF2-9058-020FDE70989F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5014" yWindow="11983" windowWidth="20271" windowHeight="14186" xr2:uid="{EDB8E5DA-21E1-493A-BE60-CCF1121D8FF0}"/>
+    <workbookView xWindow="-5957" yWindow="10569" windowWidth="29040" windowHeight="13902" xr2:uid="{EDB8E5DA-21E1-493A-BE60-CCF1121D8FF0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="118">
   <si>
     <t>Reference Table</t>
   </si>
@@ -377,13 +377,19 @@
   </si>
   <si>
     <t>Bulk structure search</t>
+  </si>
+  <si>
+    <t>Oxidation at the Subnanometer Scale</t>
+  </si>
+  <si>
+    <t>Adriana Trinchero; Henrik Gronbeck</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -392,36 +398,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="2" tint="-0.749992370372631"/>
+      <name val="Futura LT"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFE5DFC5"/>
+      <color theme="2" tint="-0.749992370372631"/>
       <name val="Futura LT"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFE5DFC5"/>
-      <name val="Futura LT"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Futura LT"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1" tint="0.249977111117893"/>
-      <name val="Futura LT"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1" tint="0.249977111117893"/>
-      <name val="Futura LT"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="1" tint="0.249977111117893"/>
+      <color theme="2" tint="-0.749992370372631"/>
       <name val="Futura LT"/>
     </font>
   </fonts>
@@ -472,61 +462,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -849,1145 +821,1124 @@
   <dimension ref="A1:K65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="4.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="4.140625" style="3" customWidth="1"/>
     <col min="4" max="4" width="102.5703125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="58.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="5"/>
-    <col min="9" max="9" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="5" max="5" width="58.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="3"/>
+    <col min="9" max="9" width="6" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="1"/>
+      <c r="A2" s="3"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="17">
+      <c r="C4" s="3">
         <v>1</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="3">
         <v>2017</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="17">
+      <c r="C5" s="3">
         <v>2</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="3">
         <v>1996</v>
       </c>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="3">
         <v>3</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="3">
         <v>2015</v>
       </c>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="20"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="22">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12">
         <v>4</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="12">
         <v>2011</v>
       </c>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="9"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="3">
         <v>5</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="3">
         <v>2009</v>
       </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="9"/>
+      <c r="K8" s="12"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="17">
+      <c r="C9" s="3">
         <v>6</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17" t="s">
+      <c r="I9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="17"/>
-      <c r="K9" s="9"/>
+      <c r="K9" s="12"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="14">
         <v>7</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="26">
+      <c r="G10" s="16">
         <v>2013</v>
       </c>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17" t="s">
+      <c r="I10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J10" s="17"/>
-      <c r="K10" s="9"/>
+      <c r="K10" s="12"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="17">
+      <c r="C11" s="3">
         <v>8</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22">
+      <c r="F11" s="12"/>
+      <c r="G11" s="12">
         <v>2016</v>
       </c>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22" t="s">
+      <c r="H11" s="12"/>
+      <c r="I11" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="J11" s="22"/>
-      <c r="K11" s="9"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C12" s="17">
         <v>9</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G12" s="12">
         <v>2001</v>
       </c>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22" t="s">
+      <c r="H12" s="12"/>
+      <c r="I12" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="J12" s="22"/>
-      <c r="K12" s="9"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="20"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="22">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12">
         <v>10</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G13" s="12">
         <v>2017</v>
       </c>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="9"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="20"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="22">
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12">
         <v>11</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G14" s="12">
         <v>2012</v>
       </c>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="9"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="20"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="28">
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="18">
         <v>12</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22">
+      <c r="F15" s="12"/>
+      <c r="G15" s="12">
         <v>2017</v>
       </c>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22" t="s">
+      <c r="H15" s="12"/>
+      <c r="I15" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="J15" s="22"/>
-      <c r="K15" s="9"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="20"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="22">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12">
         <v>13</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G16" s="12">
         <v>2018</v>
       </c>
-      <c r="H16" s="19" t="s">
+      <c r="H16" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="9"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="20"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="29">
+      <c r="A17" s="10"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="19">
         <v>14</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G17" s="22">
+      <c r="G17" s="12">
         <v>2016</v>
       </c>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22" t="s">
+      <c r="H17" s="12"/>
+      <c r="I17" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="J17" s="22"/>
-      <c r="K17" s="9"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="20"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="30">
+      <c r="A18" s="10"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="20">
         <v>15</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="22" t="s">
+      <c r="F18" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="G18" s="22">
+      <c r="G18" s="12">
         <v>2017</v>
       </c>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22" t="s">
+      <c r="H18" s="12"/>
+      <c r="I18" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="J18" s="22"/>
-      <c r="K18" s="9"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="20"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="22">
+      <c r="A19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="12">
         <v>16</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="F19" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="22">
+      <c r="G19" s="12">
         <v>2018</v>
       </c>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22" t="s">
+      <c r="H19" s="12"/>
+      <c r="I19" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="J19" s="22"/>
-      <c r="K19" s="9"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="20"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="29">
+      <c r="A20" s="10"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="19">
         <v>17</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="F20" s="22" t="s">
+      <c r="F20" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="G20" s="22">
+      <c r="G20" s="12">
         <v>2017</v>
       </c>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22" t="s">
+      <c r="H20" s="12"/>
+      <c r="I20" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="J20" s="22"/>
-      <c r="K20" s="9"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="20"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="28">
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="18">
         <v>18</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="G21" s="22">
+      <c r="G21" s="12">
         <v>2017</v>
       </c>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22" t="s">
+      <c r="H21" s="12"/>
+      <c r="I21" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="J21" s="22"/>
-      <c r="K21" s="9"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="20"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="22">
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12">
         <v>19</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="F22" s="22" t="s">
+      <c r="F22" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="G22" s="22">
+      <c r="G22" s="12">
         <v>2015</v>
       </c>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22" t="s">
+      <c r="H22" s="12"/>
+      <c r="I22" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="J22" s="22"/>
-      <c r="K22" s="9"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="20"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="22">
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12">
         <v>20</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="E23" s="22" t="s">
+      <c r="E23" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="F23" s="22" t="s">
+      <c r="F23" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="G23" s="22">
+      <c r="G23" s="12">
         <v>2019</v>
       </c>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22" t="s">
+      <c r="H23" s="12"/>
+      <c r="I23" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="J23" s="22"/>
-      <c r="K23" s="9"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="20"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="28">
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="18">
         <v>21</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22">
+      <c r="F24" s="12"/>
+      <c r="G24" s="12">
         <v>2019</v>
       </c>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="9"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="20"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="28">
+      <c r="A25" s="10"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="18">
         <v>22</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22">
+      <c r="F25" s="12"/>
+      <c r="G25" s="12">
         <v>2018</v>
       </c>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="9"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="20"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="28">
+      <c r="A26" s="10"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="18">
         <v>23</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22">
+      <c r="F26" s="12"/>
+      <c r="G26" s="12">
         <v>2019</v>
       </c>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="9"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="20"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="28">
+      <c r="A27" s="10"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="18">
         <v>24</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E27" s="17" t="s">
+      <c r="E27" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17">
+      <c r="G27" s="3">
         <v>2019</v>
       </c>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="9"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="20"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="22">
+      <c r="A28" s="10"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="12">
         <v>25</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="D28" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="E28" s="22" t="s">
+      <c r="E28" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22">
+      <c r="F28" s="12"/>
+      <c r="G28" s="12">
         <v>2019</v>
       </c>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="9"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="20"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="22">
+      <c r="A29" s="10"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="12">
         <v>26</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="E29" s="22" t="s">
+      <c r="E29" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22">
+      <c r="F29" s="12"/>
+      <c r="G29" s="12">
         <v>2017</v>
       </c>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="9"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="20"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="22">
+      <c r="A30" s="10"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="12">
         <v>27</v>
       </c>
-      <c r="D30" s="22" t="s">
+      <c r="D30" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="E30" s="22" t="s">
+      <c r="E30" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22">
+      <c r="F30" s="12"/>
+      <c r="G30" s="12">
         <v>2017</v>
       </c>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="9"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="20"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="28">
+      <c r="A31" s="10"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="18">
         <v>28</v>
       </c>
-      <c r="D31" s="22" t="s">
+      <c r="D31" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E31" s="22" t="s">
+      <c r="E31" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22">
+      <c r="F31" s="12"/>
+      <c r="G31" s="12">
         <v>2018</v>
       </c>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="9"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="20"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="22">
+      <c r="A32" s="10"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="12">
         <v>29</v>
       </c>
-      <c r="D32" s="22" t="s">
+      <c r="D32" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="E32" s="22" t="s">
+      <c r="E32" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22">
+      <c r="F32" s="12"/>
+      <c r="G32" s="12">
         <v>2018</v>
       </c>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="9"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="20"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="22">
+      <c r="A33" s="10"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="12">
         <v>30</v>
       </c>
-      <c r="D33" s="22" t="s">
+      <c r="D33" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="E33" s="22" t="s">
+      <c r="E33" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22">
+      <c r="F33" s="12"/>
+      <c r="G33" s="12">
         <v>2016</v>
       </c>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="9"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="20"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="22">
+      <c r="A34" s="10"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="12">
         <v>31</v>
       </c>
-      <c r="D34" s="22" t="s">
+      <c r="D34" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="E34" s="22" t="s">
+      <c r="E34" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22">
+      <c r="F34" s="12"/>
+      <c r="G34" s="12">
         <v>2015</v>
       </c>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="9"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="20"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="17">
+      <c r="A35" s="10"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="3">
         <v>32</v>
       </c>
-      <c r="D35" s="22" t="s">
+      <c r="D35" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="E35" s="22" t="s">
+      <c r="E35" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="9"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="20"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="22">
+      <c r="A36" s="10"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="12">
         <v>33</v>
       </c>
-      <c r="D36" s="22" t="s">
+      <c r="D36" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="E36" s="22" t="s">
+      <c r="E36" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22">
+      <c r="F36" s="12"/>
+      <c r="G36" s="12">
         <v>2018</v>
       </c>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="9"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="20"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="22">
+      <c r="A37" s="10"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="12">
         <v>34</v>
       </c>
-      <c r="D37" s="23" t="s">
+      <c r="D37" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="E37" s="22" t="s">
+      <c r="E37" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22">
+      <c r="F37" s="12"/>
+      <c r="G37" s="12">
         <v>2019</v>
       </c>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="9"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="20"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="22">
+      <c r="A38" s="10"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="12">
         <v>35</v>
       </c>
-      <c r="D38" s="22" t="s">
+      <c r="D38" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="E38" s="22" t="s">
+      <c r="E38" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22">
+      <c r="F38" s="12"/>
+      <c r="G38" s="12">
         <v>2018</v>
       </c>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="9"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="20"/>
-      <c r="B39" s="21" t="s">
+      <c r="A39" s="10"/>
+      <c r="B39" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="C39" s="22">
+      <c r="C39" s="12">
         <v>36</v>
       </c>
-      <c r="D39" s="23" t="s">
+      <c r="D39" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="E39" s="22" t="s">
+      <c r="E39" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22">
+      <c r="F39" s="12"/>
+      <c r="G39" s="12">
         <v>2015</v>
       </c>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="9"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="20"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="22">
+      <c r="A40" s="10"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="12">
         <v>37</v>
       </c>
-      <c r="D40" s="22" t="s">
+      <c r="D40" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="E40" s="22" t="s">
+      <c r="E40" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22">
+      <c r="F40" s="12"/>
+      <c r="G40" s="12">
         <v>2008</v>
       </c>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22" t="s">
+      <c r="H40" s="12"/>
+      <c r="I40" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="J40" s="22"/>
-      <c r="K40" s="9"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="20"/>
-      <c r="B41" s="21" t="s">
+      <c r="A41" s="10"/>
+      <c r="B41" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="C41" s="22">
+      <c r="C41" s="12">
         <v>38</v>
       </c>
-      <c r="D41" s="22" t="s">
+      <c r="D41" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22" t="s">
+      <c r="E41" s="12"/>
+      <c r="F41" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="G41" s="22">
+      <c r="G41" s="12">
         <v>2018</v>
       </c>
-      <c r="H41" s="22"/>
-      <c r="I41" s="22" t="s">
+      <c r="H41" s="12"/>
+      <c r="I41" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="J41" s="22"/>
-      <c r="K41" s="9"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="7"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
+      <c r="A42" s="10"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="12">
+        <v>39</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12">
+        <v>2014</v>
+      </c>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="7"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
+      <c r="A43" s="10"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="7"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
+      <c r="A44" s="10"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="7"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
+      <c r="A45" s="10"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="7"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
+      <c r="A46" s="10"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="7"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="9"/>
+      <c r="A47" s="10"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="7"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="9"/>
-      <c r="K48" s="9"/>
+      <c r="A48" s="10"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="7"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="9"/>
+      <c r="A49" s="10"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="7"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="9"/>
+      <c r="A50" s="10"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="7"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
+      <c r="A51" s="10"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="7"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="9"/>
-      <c r="K52" s="9"/>
+      <c r="A52" s="10"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="7"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="9"/>
-      <c r="K53" s="9"/>
+      <c r="A53" s="10"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="12"/>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="7"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="11"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="9"/>
-      <c r="K54" s="9"/>
+      <c r="A54" s="10"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="7"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="11"/>
-      <c r="I55" s="9"/>
-      <c r="J55" s="9"/>
-      <c r="K55" s="9"/>
+      <c r="A55" s="10"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="7"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="11"/>
-      <c r="I56" s="9"/>
-      <c r="J56" s="9"/>
-      <c r="K56" s="9"/>
+      <c r="A56" s="10"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="12"/>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="7"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="11"/>
-      <c r="I57" s="9"/>
-      <c r="J57" s="9"/>
-      <c r="K57" s="9"/>
+      <c r="A57" s="10"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="12"/>
     </row>
     <row r="65" spans="3:3" ht="15">
-      <c r="C65" s="3"/>
+      <c r="C65" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01_references/ref_lst.xlsx
+++ b/01_references/ref_lst.xlsx
@@ -1,19 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raulf2012\Dropbox\01_norskov\00_git_repos\PAPER_IrOx_Active_Learning_OER\01_references\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DCE134-7E25-4B83-8614-317EA6873BF6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="893" yWindow="-98" windowWidth="21704" windowHeight="15196" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$E$9:$G$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Sheet1!$E$9:$G$38</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -23,373 +28,394 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="119">
-  <si>
-    <t xml:space="preserve">Reference Table</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Read</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rating</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Author(s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Journal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DFT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Key Words</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Periodic DFT Study of Rutile IrO2: Surface Reactivity and Catechol Adsorption</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Olivier Matz; Monica Calatayud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J. Phys. Chem. C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">True</t>
-  </si>
-  <si>
-    <t xml:space="preserve">********</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extracting convergent surface energies from slab calculations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vincenzo Fiorentini, M Methfessel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J. Phys.: Condens. Matter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface Energies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">✓</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*****</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface energetics of alkaline-earth metal oxides: Trends in stability and adsorption of small molecules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michal Bajdich, Jens K. Norskov, Aleksandra Vojvodic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Physical Review B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First-principles study of the reconstruction and hydroxylation of the polar NiO(111) surface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Christina Ebensperger, Bernd Meyer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phys. Status Solidi B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tailoring the Morphology of LiCoO2: A First Principles Study</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Denis Kramer, Gerbrand Ceder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chemistry of Materials</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First-Principles Study of InAs/GaAs(001) Heteroepitaxy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evgeni Penev, Peter Kratzer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alloy surface segregation in reactive environments: A first-principles atomistic thermodynamics study of Ag3Pd(111) in oxygen atmospheres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">John R. Kitchin, Karsten Reutor, Mattias Scheffler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phys, Rev. B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Variation in surface energy and reduction drive of a metal oxide lithium-ion anode with stoichiometry: a DFT study of lithium titanate spinel surfaces†</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benjamin J. Morgan, Javier Carrasco, Gilberto Teobaldi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Composition, structure, and stability of RuO2„110… as a function of oxygen pressure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Karsten Reuter, Mathias Scheffler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Towards identifying the active sites on RuO2(110) in catalyzing oxygen evolution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reshma R. Rao, Manuel J. Kolb Yang Shao-Horn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy &amp; Environmental Science</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Synthesis and Activities of Rutile IrO2 and RuO2 Nanoparticles for Oxygen Evolution in Acid and Alkaline Solutions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Youngmin Lee, Jin Suntivich, Yang Shao-Horn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Journal of Physical Chemistry Letters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adsorption energies of benzene on close packed transition metal surfaces using the random phase approximation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jose A. Garrido Torres, Georg Kresse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benzene adsorption on TM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Theoretical Investigations of Transition Metal Surface Energies under Lattice Strain and CO Environment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michael T. Tang, Zachary W. Ulissi, Karen Chan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TJ. Phys. Chem. C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A highly active and stable IrOx/SrIrO3 catalyst for the oxygen evolution reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linsey C. Seitz, Colin F Dickens, Jens K. Norskov, Thomas F. Jaramillo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Science</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chris and Michal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evidence for anionic redox activity in a tridimensional-ordered Li-rich positive electrode β-Li2IrO3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paul E Pearce, Arnaud J. Perez, Jean-Marie Tarascon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nature Materials</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The stability number as a metric for electrocatalyst stability benchmarking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simon Geiger, Olga Kasian, Marc T. M. Koper, Serhiy Cherevko</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nature Catalysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combining theory and experiment in electrocatalysis: Insights into materials design</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zhi Wei Seh, Jakob Kibsgaard, Jens K. Nørskov, Thomas F. Jaramillo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Science Review</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solvation Effects for Oxygen Evolution Reaction Catalysis on IrO2(110)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joseph A. Gauthier, Colin F. Dickens, Jens K . Nørskov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JPCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Correction for OER  Colin recommended</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuning oxide activity through modification of the crystal and electronic structure: from strain to potential polymorphs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zhongnan Xu, John R. Kitchin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCCP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Referenced in Colin's Science paper (R14)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Machine-learned multi-system surrogate models for materials prediction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chandramouli Nyshadham;  David W. Wingate; Gus L. W. Hart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NPJ Comp. Mat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Machine learning, surrogate models</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Active learning in materials science with emphasis on adaptive sampling using uncertainties for targeted design</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turab Lookman; Prasanna V. Balachandran; Dezhen Xue; Ruihao Yuan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Active learning across intermetallics to guide discovery of electrocatalysts for CO 2 reduction and H 2 evolution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kevin Tran and Zachary W. Ulissi*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifying an efficient, thermally robust inorganic phosphor host via machine learning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ya Zhuo; Aria Mansouri Tehrani; Anton O. Oliynyk; Anna C. Duke; Jakoah Brgoch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chandramouli Nyshadham; Matthias Rupp; Brayden Bekker; Alexander V. Shapeev; Tim Mueller; Conrad W. Rosenbrock; Gábor Csányi; David W. Wingate; Gus L. W. Hart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solving the electronic structure problem with machine learning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anand Chandrasekaran; Deepak Kamal; Rohit Batra; Chiho Kim; Lihua Chen; Rampi Ramprasad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Machine learning in materials informatics: recent applications and prospects</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="127">
+  <si>
+    <t>Reference Table</t>
+  </si>
+  <si>
+    <t>Read</t>
+  </si>
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Author(s)</t>
+  </si>
+  <si>
+    <t>Journal</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>DFT</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Key Words</t>
+  </si>
+  <si>
+    <t>Periodic DFT Study of Rutile IrO2: Surface Reactivity and Catechol Adsorption</t>
+  </si>
+  <si>
+    <t>Olivier Matz; Monica Calatayud</t>
+  </si>
+  <si>
+    <t>J. Phys. Chem. C</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>********</t>
+  </si>
+  <si>
+    <t>Extracting convergent surface energies from slab calculations</t>
+  </si>
+  <si>
+    <t>Vincenzo Fiorentini, M Methfessel</t>
+  </si>
+  <si>
+    <t>J. Phys.: Condens. Matter</t>
+  </si>
+  <si>
+    <t>Surface Energies</t>
+  </si>
+  <si>
+    <t>✓</t>
+  </si>
+  <si>
+    <t>*****</t>
+  </si>
+  <si>
+    <t>Surface energetics of alkaline-earth metal oxides: Trends in stability and adsorption of small molecules</t>
+  </si>
+  <si>
+    <t>Michal Bajdich, Jens K. Norskov, Aleksandra Vojvodic</t>
+  </si>
+  <si>
+    <t>Physical Review B</t>
+  </si>
+  <si>
+    <t>First-principles study of the reconstruction and hydroxylation of the polar NiO(111) surface</t>
+  </si>
+  <si>
+    <t>Christina Ebensperger, Bernd Meyer</t>
+  </si>
+  <si>
+    <t>Phys. Status Solidi B</t>
+  </si>
+  <si>
+    <t>Tailoring the Morphology of LiCoO2: A First Principles Study</t>
+  </si>
+  <si>
+    <t>Denis Kramer, Gerbrand Ceder</t>
+  </si>
+  <si>
+    <t>Chemistry of Materials</t>
+  </si>
+  <si>
+    <t>First-Principles Study of InAs/GaAs(001) Heteroepitaxy</t>
+  </si>
+  <si>
+    <t>Evgeni Penev, Peter Kratzer</t>
+  </si>
+  <si>
+    <t>Alloy surface segregation in reactive environments: A first-principles atomistic thermodynamics study of Ag3Pd(111) in oxygen atmospheres</t>
+  </si>
+  <si>
+    <t>John R. Kitchin, Karsten Reutor, Mattias Scheffler</t>
+  </si>
+  <si>
+    <t>Phys, Rev. B</t>
+  </si>
+  <si>
+    <t>Variation in surface energy and reduction drive of a metal oxide lithium-ion anode with stoichiometry: a DFT study of lithium titanate spinel surfaces†</t>
+  </si>
+  <si>
+    <t>Benjamin J. Morgan, Javier Carrasco, Gilberto Teobaldi</t>
+  </si>
+  <si>
+    <t>Composition, structure, and stability of RuO2„110… as a function of oxygen pressure</t>
+  </si>
+  <si>
+    <t>Karsten Reuter, Mathias Scheffler</t>
+  </si>
+  <si>
+    <t>Towards identifying the active sites on RuO2(110) in catalyzing oxygen evolution</t>
+  </si>
+  <si>
+    <t>Reshma R. Rao, Manuel J. Kolb Yang Shao-Horn</t>
+  </si>
+  <si>
+    <t>Energy &amp; Environmental Science</t>
+  </si>
+  <si>
+    <t>Synthesis and Activities of Rutile IrO2 and RuO2 Nanoparticles for Oxygen Evolution in Acid and Alkaline Solutions</t>
+  </si>
+  <si>
+    <t>Youngmin Lee, Jin Suntivich, Yang Shao-Horn</t>
+  </si>
+  <si>
+    <t>The Journal of Physical Chemistry Letters</t>
+  </si>
+  <si>
+    <t>Adsorption energies of benzene on close packed transition metal surfaces using the random phase approximation</t>
+  </si>
+  <si>
+    <t>Jose A. Garrido Torres, Georg Kresse</t>
+  </si>
+  <si>
+    <t>Benzene adsorption on TM</t>
+  </si>
+  <si>
+    <t>Theoretical Investigations of Transition Metal Surface Energies under Lattice Strain and CO Environment</t>
+  </si>
+  <si>
+    <t>Michael T. Tang, Zachary W. Ulissi, Karen Chan</t>
+  </si>
+  <si>
+    <t>TJ. Phys. Chem. C</t>
+  </si>
+  <si>
+    <t>A highly active and stable IrOx/SrIrO3 catalyst for the oxygen evolution reaction</t>
+  </si>
+  <si>
+    <t>Linsey C. Seitz, Colin F Dickens, Jens K. Norskov, Thomas F. Jaramillo</t>
+  </si>
+  <si>
+    <t>Science</t>
+  </si>
+  <si>
+    <t>Chris and Michal</t>
+  </si>
+  <si>
+    <t>Evidence for anionic redox activity in a tridimensional-ordered Li-rich positive electrode β-Li2IrO3</t>
+  </si>
+  <si>
+    <t>Paul E Pearce, Arnaud J. Perez, Jean-Marie Tarascon</t>
+  </si>
+  <si>
+    <t>Nature Materials</t>
+  </si>
+  <si>
+    <t>The stability number as a metric for electrocatalyst stability benchmarking</t>
+  </si>
+  <si>
+    <t>Simon Geiger, Olga Kasian, Marc T. M. Koper, Serhiy Cherevko</t>
+  </si>
+  <si>
+    <t>Nature Catalysis</t>
+  </si>
+  <si>
+    <t>Michal</t>
+  </si>
+  <si>
+    <t>Combining theory and experiment in electrocatalysis: Insights into materials design</t>
+  </si>
+  <si>
+    <t>Zhi Wei Seh, Jakob Kibsgaard, Jens K. Nørskov, Thomas F. Jaramillo</t>
+  </si>
+  <si>
+    <t>Science Review</t>
+  </si>
+  <si>
+    <t>Solvation Effects for Oxygen Evolution Reaction Catalysis on IrO2(110)</t>
+  </si>
+  <si>
+    <t>Joseph A. Gauthier, Colin F. Dickens, Jens K . Nørskov</t>
+  </si>
+  <si>
+    <t>JPCC</t>
+  </si>
+  <si>
+    <t>Correction for OER  Colin recommended</t>
+  </si>
+  <si>
+    <t>Tuning oxide activity through modification of the crystal and electronic structure: from strain to potential polymorphs</t>
+  </si>
+  <si>
+    <t>Zhongnan Xu, John R. Kitchin</t>
+  </si>
+  <si>
+    <t>PCCP</t>
+  </si>
+  <si>
+    <t>Referenced in Colin's Science paper (R14)</t>
+  </si>
+  <si>
+    <t>Machine-learned multi-system surrogate models for materials prediction</t>
+  </si>
+  <si>
+    <t>Chandramouli Nyshadham;  David W. Wingate; Gus L. W. Hart</t>
+  </si>
+  <si>
+    <t>NPJ Comp. Mat</t>
+  </si>
+  <si>
+    <t>Machine learning, surrogate models</t>
+  </si>
+  <si>
+    <t>Active learning in materials science with emphasis on adaptive sampling using uncertainties for targeted design</t>
+  </si>
+  <si>
+    <t>Turab Lookman; Prasanna V. Balachandran; Dezhen Xue; Ruihao Yuan</t>
+  </si>
+  <si>
+    <t>Active learning across intermetallics to guide discovery of electrocatalysts for CO 2 reduction and H 2 evolution</t>
+  </si>
+  <si>
+    <t>Kevin Tran and Zachary W. Ulissi*</t>
+  </si>
+  <si>
+    <t>Identifying an efficient, thermally robust inorganic phosphor host via machine learning</t>
+  </si>
+  <si>
+    <t>Ya Zhuo; Aria Mansouri Tehrani; Anton O. Oliynyk; Anna C. Duke; Jakoah Brgoch</t>
+  </si>
+  <si>
+    <t>Chandramouli Nyshadham; Matthias Rupp; Brayden Bekker; Alexander V. Shapeev; Tim Mueller; Conrad W. Rosenbrock; Gábor Csányi; David W. Wingate; Gus L. W. Hart</t>
+  </si>
+  <si>
+    <t>Solving the electronic structure problem with machine learning</t>
+  </si>
+  <si>
+    <t>Anand Chandrasekaran; Deepak Kamal; Rohit Batra; Chiho Kim; Lihua Chen; Rampi Ramprasad</t>
+  </si>
+  <si>
+    <t>Machine learning in materials informatics: recent applications and prospects</t>
   </si>
   <si>
     <t xml:space="preserve">Rampi Ramprasad; Rohit Batra; Ghanshyam Pilania; Arun Mannodi-Kanakkithodi; Chiho Kim </t>
   </si>
   <si>
-    <t xml:space="preserve">Machine-learned approximations to Density Functional Theory Hamiltonians</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ganesh Hegde; R. Chris Bowen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Machine learning for molecular and materials science</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keith T. Butler; Daniel w. Davies; Hugh Cartwright; Olexandr isayev; Aron walsh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Machine learning in catalysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">John R. Kitchin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A general-purpose machine learning framework for predicting properties of inorganic materials</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Logan Ward; Ankit Agrawal; Alok Choudhary; Christopher Wolverton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Materials Prediction via Classification Learning</t>
+    <t>Machine-learned approximations to Density Functional Theory Hamiltonians</t>
+  </si>
+  <si>
+    <t>Ganesh Hegde; R. Chris Bowen</t>
+  </si>
+  <si>
+    <t>Machine learning for molecular and materials science</t>
+  </si>
+  <si>
+    <t>Keith T. Butler; Daniel w. Davies; Hugh Cartwright; Olexandr isayev; Aron walsh</t>
+  </si>
+  <si>
+    <t>Machine learning in catalysis</t>
+  </si>
+  <si>
+    <t>John R. Kitchin</t>
+  </si>
+  <si>
+    <t>A general-purpose machine learning framework for predicting properties of inorganic materials</t>
+  </si>
+  <si>
+    <t>Logan Ward; Ankit Agrawal; Alok Choudhary; Christopher Wolverton</t>
+  </si>
+  <si>
+    <t>Materials Prediction via Classification Learning</t>
   </si>
   <si>
     <t xml:space="preserve">Prasanna V. Balachandran; James Theiler; James M. Rondinelli; Turab Lookman </t>
   </si>
   <si>
-    <t xml:space="preserve">Deep neural networks for accurate predictions of crystal stability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weike Ye; Chi Chen; Zhenbin Wang; Iek-Heng Chu; Shyue Ping Ong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A strategy to apply machine learning to small datasets in materials science</t>
+    <t>Deep neural networks for accurate predictions of crystal stability</t>
+  </si>
+  <si>
+    <t>Weike Ye; Chi Chen; Zhenbin Wang; Iek-Heng Chu; Shyue Ping Ong</t>
+  </si>
+  <si>
+    <t>A strategy to apply machine learning to small datasets in materials science</t>
   </si>
   <si>
     <t xml:space="preserve">Ying Zhang 1 and Chen Ling </t>
   </si>
   <si>
-    <t xml:space="preserve">Physical descriptor for the Gibbs energy of inorganic crystalline solids and temperature-dependent materials chemistry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Christopher J. Bartel; Samantha L. Millican; Ann M. Deml; John R. Rumptz; William Tumas; Alan W. Weimer; Stephan Lany; Vladan Stevanović; Charles B. Musgrave; Aaron M. Holder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toward artificial intelligence in catalysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zheng Li, Siwen Wang; Hongliang Xin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">****</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Open Quantum Materials Database (OQMD): assessing the accuracy of DFT formation energies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scott Kirklin, Chris Wolverton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface Pourbaix diagrams and oxygen reduction activity of Pt, Ag and Ni(111) surfaces studied by DFT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heine A. Hansen; Jens K Norskov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface Pourbaix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tight-Binding Approximation-Enhanced Global Optimization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JCTC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bulk structure search</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oxidation at the Subnanometer Scale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adriana Trinchero; Henrik Gronbeck</t>
+    <t>Physical descriptor for the Gibbs energy of inorganic crystalline solids and temperature-dependent materials chemistry</t>
+  </si>
+  <si>
+    <t>Christopher J. Bartel; Samantha L. Millican; Ann M. Deml; John R. Rumptz; William Tumas; Alan W. Weimer; Stephan Lany; Vladan Stevanović; Charles B. Musgrave; Aaron M. Holder</t>
+  </si>
+  <si>
+    <t>Toward artificial intelligence in catalysis</t>
+  </si>
+  <si>
+    <t>Zheng Li, Siwen Wang; Hongliang Xin</t>
+  </si>
+  <si>
+    <t>****</t>
+  </si>
+  <si>
+    <t>The Open Quantum Materials Database (OQMD): assessing the accuracy of DFT formation energies</t>
+  </si>
+  <si>
+    <t>Scott Kirklin, Chris Wolverton</t>
+  </si>
+  <si>
+    <t>Surface Pourbaix diagrams and oxygen reduction activity of Pt, Ag and Ni(111) surfaces studied by DFT</t>
+  </si>
+  <si>
+    <t>Heine A. Hansen; Jens K Norskov</t>
+  </si>
+  <si>
+    <t>Surface Pourbaix</t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>Tight-Binding Approximation-Enhanced Global Optimization</t>
+  </si>
+  <si>
+    <t>JCTC</t>
+  </si>
+  <si>
+    <t>Bulk structure search</t>
+  </si>
+  <si>
+    <t>Oxidation at the Subnanometer Scale</t>
+  </si>
+  <si>
+    <t>Adriana Trinchero; Henrik Gronbeck</t>
+  </si>
+  <si>
+    <t>Atomic positions independent descriptor for machine learning of material properties</t>
+  </si>
+  <si>
+    <t>Ankit Jain; Thomas Bligaard</t>
+  </si>
+  <si>
+    <t>Ankit's paper on prototype and NN</t>
+  </si>
+  <si>
+    <t>**********</t>
+  </si>
+  <si>
+    <t>Ab Initio Thermodynamics Insight into the Structural Evolution of Working IrO2 Catalysts in Proton-Exchange Membrane Electrolyzers</t>
+  </si>
+  <si>
+    <t>Summer school presentation</t>
+  </si>
+  <si>
+    <t>ACS Catalysis</t>
+  </si>
+  <si>
+    <t>Daniel Opalka; Christoph Scheurer; Karsten Reuter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -398,45 +424,27 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3B3838"/>
       <name val="Futura LT"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="18"/>
       <color rgb="FF3B3838"/>
       <name val="Futura LT"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3B3838"/>
       <name val="Futura LT"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -467,142 +475,77 @@
         <bgColor rgb="FF339966"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="22">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -661,45 +604,353 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF3B3838"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:K65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMK44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="7.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="4.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="102.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="58.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="13.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="3" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="6.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="10.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="3" width="9"/>
+    <col min="1" max="1" width="5.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.73046875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="4.1328125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="102.59765625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="58.73046875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.265625" style="3" customWidth="1"/>
+    <col min="7" max="8" width="9" style="3" customWidth="1"/>
+    <col min="9" max="9" width="6" style="3" customWidth="1"/>
+    <col min="10" max="10" width="10.73046875" style="3" customWidth="1"/>
+    <col min="11" max="1025" width="9" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:11" ht="22.5">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:11">
       <c r="A2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:11">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -731,8 +982,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="3" t="n">
+    <row r="4" spans="1:11">
+      <c r="C4" s="3">
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -744,18 +995,18 @@
       <c r="F4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="3" t="n">
+      <c r="G4" s="3">
         <v>2017</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:11">
       <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="9" t="n">
+      <c r="C5" s="9">
         <v>2</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -767,21 +1018,21 @@
       <c r="F5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="3" t="n">
+      <c r="G5" s="3">
         <v>1996</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="3">
         <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -793,17 +1044,17 @@
       <c r="F6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="3" t="n">
+      <c r="G6" s="3">
         <v>2015</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:11">
       <c r="A7" s="10"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="12" t="n">
+      <c r="C7" s="12">
         <v>4</v>
       </c>
       <c r="D7" s="13" t="s">
@@ -815,7 +1066,7 @@
       <c r="F7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="12" t="n">
+      <c r="G7" s="12">
         <v>2011</v>
       </c>
       <c r="H7" s="12"/>
@@ -823,11 +1074,11 @@
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:11">
       <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" s="3">
         <v>5</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -839,13 +1090,13 @@
       <c r="F8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="3" t="n">
+      <c r="G8" s="3">
         <v>2009</v>
       </c>
       <c r="K8" s="12"/>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="3" t="n">
+    <row r="9" spans="1:11">
+      <c r="C9" s="3">
         <v>6</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -859,11 +1110,11 @@
       </c>
       <c r="K9" s="12"/>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:11">
       <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="14" t="n">
+      <c r="C10" s="14">
         <v>7</v>
       </c>
       <c r="D10" s="15" t="s">
@@ -875,7 +1126,7 @@
       <c r="F10" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="16" t="n">
+      <c r="G10" s="16">
         <v>2013</v>
       </c>
       <c r="I10" s="3" t="s">
@@ -883,8 +1134,8 @@
       </c>
       <c r="K10" s="12"/>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="3" t="n">
+    <row r="11" spans="1:11">
+      <c r="C11" s="3">
         <v>8</v>
       </c>
       <c r="D11" s="13" t="s">
@@ -894,7 +1145,7 @@
         <v>37</v>
       </c>
       <c r="F11" s="12"/>
-      <c r="G11" s="12" t="n">
+      <c r="G11" s="12">
         <v>2016</v>
       </c>
       <c r="H11" s="12"/>
@@ -904,11 +1155,11 @@
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:11">
       <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="17" t="n">
+      <c r="C12" s="17">
         <v>9</v>
       </c>
       <c r="D12" s="13" t="s">
@@ -920,7 +1171,7 @@
       <c r="F12" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="12" t="n">
+      <c r="G12" s="12">
         <v>2001</v>
       </c>
       <c r="H12" s="12"/>
@@ -930,10 +1181,10 @@
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:11">
       <c r="A13" s="10"/>
       <c r="B13" s="11"/>
-      <c r="C13" s="12" t="n">
+      <c r="C13" s="12">
         <v>10</v>
       </c>
       <c r="D13" s="13" t="s">
@@ -945,7 +1196,7 @@
       <c r="F13" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="12" t="n">
+      <c r="G13" s="12">
         <v>2017</v>
       </c>
       <c r="H13" s="12"/>
@@ -953,10 +1204,10 @@
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:11">
       <c r="A14" s="10"/>
       <c r="B14" s="11"/>
-      <c r="C14" s="12" t="n">
+      <c r="C14" s="12">
         <v>11</v>
       </c>
       <c r="D14" s="13" t="s">
@@ -968,7 +1219,7 @@
       <c r="F14" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="12" t="n">
+      <c r="G14" s="12">
         <v>2012</v>
       </c>
       <c r="H14" s="12"/>
@@ -976,10 +1227,10 @@
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:11">
       <c r="A15" s="10"/>
       <c r="B15" s="11"/>
-      <c r="C15" s="18" t="n">
+      <c r="C15" s="18">
         <v>12</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -989,7 +1240,7 @@
         <v>47</v>
       </c>
       <c r="F15" s="12"/>
-      <c r="G15" s="12" t="n">
+      <c r="G15" s="12">
         <v>2017</v>
       </c>
       <c r="H15" s="12"/>
@@ -999,10 +1250,10 @@
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
     </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:11">
       <c r="A16" s="10"/>
       <c r="B16" s="11"/>
-      <c r="C16" s="12" t="n">
+      <c r="C16" s="12">
         <v>13</v>
       </c>
       <c r="D16" s="13" t="s">
@@ -1014,7 +1265,7 @@
       <c r="F16" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="G16" s="12" t="n">
+      <c r="G16" s="12">
         <v>2018</v>
       </c>
       <c r="H16" s="3" t="s">
@@ -1024,10 +1275,10 @@
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
     </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:11">
       <c r="A17" s="10"/>
       <c r="B17" s="11"/>
-      <c r="C17" s="19" t="n">
+      <c r="C17" s="19">
         <v>14</v>
       </c>
       <c r="D17" s="13" t="s">
@@ -1039,7 +1290,7 @@
       <c r="F17" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="G17" s="12" t="n">
+      <c r="G17" s="12">
         <v>2016</v>
       </c>
       <c r="H17" s="12"/>
@@ -1049,10 +1300,10 @@
       <c r="J17" s="12"/>
       <c r="K17" s="12"/>
     </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:11">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
-      <c r="C18" s="20" t="n">
+      <c r="C18" s="20">
         <v>15</v>
       </c>
       <c r="D18" s="13" t="s">
@@ -1064,7 +1315,7 @@
       <c r="F18" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="G18" s="12" t="n">
+      <c r="G18" s="12">
         <v>2017</v>
       </c>
       <c r="H18" s="12"/>
@@ -1074,10 +1325,10 @@
       <c r="J18" s="12"/>
       <c r="K18" s="12"/>
     </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:11">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
-      <c r="C19" s="12" t="n">
+      <c r="C19" s="12">
         <v>16</v>
       </c>
       <c r="D19" s="13" t="s">
@@ -1089,7 +1340,7 @@
       <c r="F19" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="G19" s="12" t="n">
+      <c r="G19" s="12">
         <v>2018</v>
       </c>
       <c r="H19" s="12"/>
@@ -1099,10 +1350,10 @@
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
     </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:11">
       <c r="A20" s="10"/>
       <c r="B20" s="11"/>
-      <c r="C20" s="19" t="n">
+      <c r="C20" s="19">
         <v>17</v>
       </c>
       <c r="D20" s="4" t="s">
@@ -1114,7 +1365,7 @@
       <c r="F20" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="G20" s="12" t="n">
+      <c r="G20" s="12">
         <v>2017</v>
       </c>
       <c r="H20" s="12"/>
@@ -1124,10 +1375,10 @@
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
     </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:11">
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
-      <c r="C21" s="18" t="n">
+      <c r="C21" s="18">
         <v>18</v>
       </c>
       <c r="D21" s="13" t="s">
@@ -1139,7 +1390,7 @@
       <c r="F21" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="G21" s="12" t="n">
+      <c r="G21" s="12">
         <v>2017</v>
       </c>
       <c r="H21" s="12"/>
@@ -1149,10 +1400,10 @@
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
     </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:11">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
-      <c r="C22" s="12" t="n">
+      <c r="C22" s="12">
         <v>19</v>
       </c>
       <c r="D22" s="13" t="s">
@@ -1164,7 +1415,7 @@
       <c r="F22" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="G22" s="12" t="n">
+      <c r="G22" s="12">
         <v>2015</v>
       </c>
       <c r="H22" s="12"/>
@@ -1174,10 +1425,10 @@
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
     </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:11">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="12" t="n">
+      <c r="C23" s="12">
         <v>20</v>
       </c>
       <c r="D23" s="13" t="s">
@@ -1189,7 +1440,7 @@
       <c r="F23" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="G23" s="12" t="n">
+      <c r="G23" s="12">
         <v>2019</v>
       </c>
       <c r="H23" s="12"/>
@@ -1199,10 +1450,10 @@
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
     </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:11">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
-      <c r="C24" s="18" t="n">
+      <c r="C24" s="18">
         <v>21</v>
       </c>
       <c r="D24" s="13" t="s">
@@ -1212,7 +1463,7 @@
         <v>79</v>
       </c>
       <c r="F24" s="12"/>
-      <c r="G24" s="12" t="n">
+      <c r="G24" s="12">
         <v>2019</v>
       </c>
       <c r="H24" s="12"/>
@@ -1220,10 +1471,10 @@
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
     </row>
-    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:11">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
-      <c r="C25" s="18" t="n">
+      <c r="C25" s="18">
         <v>22</v>
       </c>
       <c r="D25" s="13" t="s">
@@ -1233,7 +1484,7 @@
         <v>81</v>
       </c>
       <c r="F25" s="12"/>
-      <c r="G25" s="12" t="n">
+      <c r="G25" s="12">
         <v>2018</v>
       </c>
       <c r="H25" s="12"/>
@@ -1241,10 +1492,10 @@
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
     </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:11">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
-      <c r="C26" s="18" t="n">
+      <c r="C26" s="18">
         <v>23</v>
       </c>
       <c r="D26" s="13" t="s">
@@ -1254,7 +1505,7 @@
         <v>83</v>
       </c>
       <c r="F26" s="12"/>
-      <c r="G26" s="12" t="n">
+      <c r="G26" s="12">
         <v>2019</v>
       </c>
       <c r="H26" s="12"/>
@@ -1262,10 +1513,10 @@
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
     </row>
-    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:11">
       <c r="A27" s="10"/>
       <c r="B27" s="11"/>
-      <c r="C27" s="18" t="n">
+      <c r="C27" s="18">
         <v>24</v>
       </c>
       <c r="D27" s="4" t="s">
@@ -1274,7 +1525,7 @@
       <c r="E27" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="G27" s="3" t="n">
+      <c r="G27" s="3">
         <v>2019</v>
       </c>
       <c r="H27" s="12"/>
@@ -1282,10 +1533,10 @@
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
     </row>
-    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:11">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
-      <c r="C28" s="12" t="n">
+      <c r="C28" s="12">
         <v>25</v>
       </c>
       <c r="D28" s="13" t="s">
@@ -1295,7 +1546,7 @@
         <v>86</v>
       </c>
       <c r="F28" s="12"/>
-      <c r="G28" s="12" t="n">
+      <c r="G28" s="12">
         <v>2019</v>
       </c>
       <c r="H28" s="12"/>
@@ -1303,10 +1554,10 @@
       <c r="J28" s="12"/>
       <c r="K28" s="12"/>
     </row>
-    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:11">
       <c r="A29" s="10"/>
       <c r="B29" s="11"/>
-      <c r="C29" s="12" t="n">
+      <c r="C29" s="12">
         <v>26</v>
       </c>
       <c r="D29" s="13" t="s">
@@ -1316,7 +1567,7 @@
         <v>88</v>
       </c>
       <c r="F29" s="12"/>
-      <c r="G29" s="12" t="n">
+      <c r="G29" s="12">
         <v>2017</v>
       </c>
       <c r="H29" s="12"/>
@@ -1324,10 +1575,10 @@
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
     </row>
-    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:11">
       <c r="A30" s="10"/>
       <c r="B30" s="11"/>
-      <c r="C30" s="12" t="n">
+      <c r="C30" s="12">
         <v>27</v>
       </c>
       <c r="D30" s="12" t="s">
@@ -1337,7 +1588,7 @@
         <v>90</v>
       </c>
       <c r="F30" s="12"/>
-      <c r="G30" s="12" t="n">
+      <c r="G30" s="12">
         <v>2017</v>
       </c>
       <c r="H30" s="12"/>
@@ -1345,10 +1596,10 @@
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
     </row>
-    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:11">
       <c r="A31" s="10"/>
       <c r="B31" s="11"/>
-      <c r="C31" s="18" t="n">
+      <c r="C31" s="18">
         <v>28</v>
       </c>
       <c r="D31" s="12" t="s">
@@ -1358,7 +1609,7 @@
         <v>92</v>
       </c>
       <c r="F31" s="12"/>
-      <c r="G31" s="12" t="n">
+      <c r="G31" s="12">
         <v>2018</v>
       </c>
       <c r="H31" s="12"/>
@@ -1366,10 +1617,10 @@
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
     </row>
-    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:11">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
-      <c r="C32" s="12" t="n">
+      <c r="C32" s="12">
         <v>29</v>
       </c>
       <c r="D32" s="12" t="s">
@@ -1379,7 +1630,7 @@
         <v>94</v>
       </c>
       <c r="F32" s="12"/>
-      <c r="G32" s="12" t="n">
+      <c r="G32" s="12">
         <v>2018</v>
       </c>
       <c r="H32" s="12"/>
@@ -1387,10 +1638,10 @@
       <c r="J32" s="12"/>
       <c r="K32" s="12"/>
     </row>
-    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:11">
       <c r="A33" s="10"/>
       <c r="B33" s="11"/>
-      <c r="C33" s="12" t="n">
+      <c r="C33" s="12">
         <v>30</v>
       </c>
       <c r="D33" s="12" t="s">
@@ -1400,7 +1651,7 @@
         <v>96</v>
       </c>
       <c r="F33" s="12"/>
-      <c r="G33" s="12" t="n">
+      <c r="G33" s="12">
         <v>2016</v>
       </c>
       <c r="H33" s="12"/>
@@ -1408,10 +1659,10 @@
       <c r="J33" s="12"/>
       <c r="K33" s="12"/>
     </row>
-    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:11">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
-      <c r="C34" s="12" t="n">
+      <c r="C34" s="12">
         <v>31</v>
       </c>
       <c r="D34" s="12" t="s">
@@ -1421,7 +1672,7 @@
         <v>98</v>
       </c>
       <c r="F34" s="12"/>
-      <c r="G34" s="12" t="n">
+      <c r="G34" s="12">
         <v>2015</v>
       </c>
       <c r="H34" s="12"/>
@@ -1429,10 +1680,10 @@
       <c r="J34" s="12"/>
       <c r="K34" s="12"/>
     </row>
-    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:11">
       <c r="A35" s="10"/>
       <c r="B35" s="11"/>
-      <c r="C35" s="3" t="n">
+      <c r="C35" s="3">
         <v>32</v>
       </c>
       <c r="D35" s="12" t="s">
@@ -1448,10 +1699,10 @@
       <c r="J35" s="12"/>
       <c r="K35" s="12"/>
     </row>
-    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:11">
       <c r="A36" s="10"/>
       <c r="B36" s="11"/>
-      <c r="C36" s="12" t="n">
+      <c r="C36" s="12">
         <v>33</v>
       </c>
       <c r="D36" s="12" t="s">
@@ -1461,7 +1712,7 @@
         <v>102</v>
       </c>
       <c r="F36" s="12"/>
-      <c r="G36" s="12" t="n">
+      <c r="G36" s="12">
         <v>2018</v>
       </c>
       <c r="H36" s="12"/>
@@ -1469,10 +1720,10 @@
       <c r="J36" s="12"/>
       <c r="K36" s="12"/>
     </row>
-    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:11">
       <c r="A37" s="10"/>
       <c r="B37" s="11"/>
-      <c r="C37" s="12" t="n">
+      <c r="C37" s="12">
         <v>34</v>
       </c>
       <c r="D37" s="13" t="s">
@@ -1482,7 +1733,7 @@
         <v>104</v>
       </c>
       <c r="F37" s="12"/>
-      <c r="G37" s="12" t="n">
+      <c r="G37" s="12">
         <v>2019</v>
       </c>
       <c r="H37" s="12"/>
@@ -1490,10 +1741,10 @@
       <c r="J37" s="12"/>
       <c r="K37" s="12"/>
     </row>
-    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:11">
       <c r="A38" s="10"/>
       <c r="B38" s="11"/>
-      <c r="C38" s="12" t="n">
+      <c r="C38" s="12">
         <v>35</v>
       </c>
       <c r="D38" s="12" t="s">
@@ -1503,7 +1754,7 @@
         <v>106</v>
       </c>
       <c r="F38" s="12"/>
-      <c r="G38" s="12" t="n">
+      <c r="G38" s="12">
         <v>2018</v>
       </c>
       <c r="H38" s="12"/>
@@ -1511,12 +1762,12 @@
       <c r="J38" s="12"/>
       <c r="K38" s="12"/>
     </row>
-    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:11">
       <c r="A39" s="10"/>
       <c r="B39" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C39" s="12" t="n">
+      <c r="C39" s="12">
         <v>36</v>
       </c>
       <c r="D39" s="13" t="s">
@@ -1526,7 +1777,7 @@
         <v>109</v>
       </c>
       <c r="F39" s="12"/>
-      <c r="G39" s="12" t="n">
+      <c r="G39" s="12">
         <v>2015</v>
       </c>
       <c r="H39" s="12"/>
@@ -1534,10 +1785,10 @@
       <c r="J39" s="12"/>
       <c r="K39" s="12"/>
     </row>
-    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:11">
       <c r="A40" s="10"/>
       <c r="B40" s="11"/>
-      <c r="C40" s="12" t="n">
+      <c r="C40" s="12">
         <v>37</v>
       </c>
       <c r="D40" s="12" t="s">
@@ -1547,7 +1798,7 @@
         <v>111</v>
       </c>
       <c r="F40" s="12"/>
-      <c r="G40" s="12" t="n">
+      <c r="G40" s="12">
         <v>2008</v>
       </c>
       <c r="H40" s="12"/>
@@ -1557,12 +1808,12 @@
       <c r="J40" s="12"/>
       <c r="K40" s="12"/>
     </row>
-    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:11">
       <c r="A41" s="10"/>
       <c r="B41" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="C41" s="12" t="n">
+      <c r="C41" s="12">
         <v>38</v>
       </c>
       <c r="D41" s="12" t="s">
@@ -1572,7 +1823,7 @@
       <c r="F41" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="G41" s="12" t="n">
+      <c r="G41" s="12">
         <v>2018</v>
       </c>
       <c r="H41" s="12"/>
@@ -1582,10 +1833,10 @@
       <c r="J41" s="12"/>
       <c r="K41" s="12"/>
     </row>
-    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:11">
       <c r="A42" s="10"/>
       <c r="B42" s="11"/>
-      <c r="C42" s="12" t="n">
+      <c r="C42" s="12">
         <v>39</v>
       </c>
       <c r="D42" s="13" t="s">
@@ -1595,7 +1846,7 @@
         <v>118</v>
       </c>
       <c r="F42" s="12"/>
-      <c r="G42" s="12" t="n">
+      <c r="G42" s="12">
         <v>2014</v>
       </c>
       <c r="H42" s="12"/>
@@ -1603,15 +1854,55 @@
       <c r="J42" s="12"/>
       <c r="K42" s="12"/>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="43" spans="1:11">
+      <c r="B43" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C43" s="21">
+        <v>40</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G43" s="3">
+        <v>2018</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="B44" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" s="3">
+        <v>41</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G44" s="3">
+        <v>2019</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <picture r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <picture r:id="rId2"/>
 </worksheet>
 </file>
--- a/01_references/ref_lst.xlsx
+++ b/01_references/ref_lst.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="143">
   <si>
     <t>Reference Table</t>
   </si>
@@ -457,6 +457,12 @@
   </si>
   <si>
     <t>Materials property prediction using symmetry-labeled graphs as atomic-position independent descriptors</t>
+  </si>
+  <si>
+    <t>Peter Bjørn Jørgensen, Estefanía Garijo del Río, Mikkel N. Schmidt, Karsten Wedel Jacobsen</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/1905.06048v2</t>
   </si>
 </sst>
 </file>
@@ -990,7 +996,7 @@
   <dimension ref="A1:AML48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D26" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -49762,7 +49768,7 @@
       <c r="AMK47" s="12"/>
       <c r="AML47" s="12"/>
     </row>
-    <row r="48" spans="1:1026">
+    <row r="48" spans="1:1026" ht="15">
       <c r="A48" s="10"/>
       <c r="B48" s="11" t="s">
         <v>139</v>
@@ -49773,9 +49779,16 @@
       <c r="D48" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="E48" s="12"/>
+      <c r="E48" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F48" s="21" t="s">
+        <v>142</v>
+      </c>
       <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
+      <c r="H48" s="12">
+        <v>2019</v>
+      </c>
       <c r="I48" s="12"/>
       <c r="J48" s="12"/>
       <c r="K48" s="12"/>
@@ -50800,9 +50813,10 @@
     <hyperlink ref="F45" r:id="rId1" xr:uid="{3B8FEF3F-6E50-4CC9-8EB2-EFF554BD343F}"/>
     <hyperlink ref="F46" r:id="rId2" xr:uid="{C65E57A4-92E8-4DBA-B84D-A7B881E69C36}"/>
     <hyperlink ref="F47" r:id="rId3" location="secsectitle0020" xr:uid="{F6D6BCE3-DF02-4902-AFAA-74F0E2654803}"/>
+    <hyperlink ref="F48" r:id="rId4" xr:uid="{4832D40B-AE31-4FA0-A465-456EB8B7D668}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
-  <picture r:id="rId5"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
+  <picture r:id="rId6"/>
 </worksheet>
 </file>
--- a/01_references/ref_lst.xlsx
+++ b/01_references/ref_lst.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22018"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raulf2012\Dropbox\01_norskov\00_git_repos\PAPER_IrOx_Active_Learning_OER\01_references\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561F909D-2686-48E7-9499-4AE0AEFCF75E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561F909D-2686-48E7-9499-4AE0AEFCF75E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="893" yWindow="-98" windowWidth="21704" windowHeight="15196" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,8 +18,14 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">Sheet1!$E$9:$H$38</definedName>
   </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191028" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -28,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="160">
   <si>
     <t>Reference Table</t>
   </si>
@@ -493,6 +499,21 @@
   </si>
   <si>
     <t>Voronoi fingerprinting method</t>
+  </si>
+  <si>
+    <t>Machine Learning for Computational Heterogeneous Catalysis</t>
+  </si>
+  <si>
+    <t>Dr. Philomena Schlexer Lamoureux; Dr. Kirsten T. Winther; Dr. Jose Antonio Garrido Torres; Dr. Verena Streibel; Dr. Meng Zhao; Dr. Michal Bajdich; Dr. Frank Abild‐Pedersen; Dr. Thomas Bligaard</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/full/10.1002/cctc.201900595</t>
+  </si>
+  <si>
+    <t>CHEMCATCHEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ML review from </t>
   </si>
 </sst>
 </file>
@@ -617,7 +638,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -658,6 +679,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1041,24 +1063,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK51"/>
+  <dimension ref="A1:AMK52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10.86328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.73046875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="4.1328125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="102.59765625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="58.73046875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="13.53125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.265625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="4.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="102.5703125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="58.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="3" customWidth="1"/>
     <col min="8" max="9" width="9" style="3" customWidth="1"/>
     <col min="10" max="10" width="6" style="3" customWidth="1"/>
-    <col min="11" max="11" width="10.73046875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" style="3" customWidth="1"/>
     <col min="12" max="1025" width="9" style="3" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2187,7 +2209,7 @@
       </c>
       <c r="K49" s="12"/>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" ht="15">
       <c r="A50" s="10"/>
       <c r="B50" s="11"/>
       <c r="C50" s="12">
@@ -2210,7 +2232,7 @@
       </c>
       <c r="K50" s="12"/>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" ht="15">
       <c r="A51" s="10"/>
       <c r="B51" s="11"/>
       <c r="C51" s="12">
@@ -2232,6 +2254,29 @@
         <v>154</v>
       </c>
       <c r="K51" s="12"/>
+    </row>
+    <row r="52" spans="1:11" ht="15">
+      <c r="C52" s="3">
+        <v>49</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F52" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="H52" s="3">
+        <v>2019</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>159</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2239,9 +2284,10 @@
     <hyperlink ref="F46" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="F47" r:id="rId3" location="secsectitle0020" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="F48" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F52" r:id="rId5" xr:uid="{56395913-EB9E-4B91-A75B-9B2D1CBE3E4D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
-  <picture r:id="rId6"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
+  <picture r:id="rId7"/>
 </worksheet>
 </file>
--- a/01_references/ref_lst.xlsx
+++ b/01_references/ref_lst.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22021"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raulf2012\Dropbox\01_norskov\00_git_repos\PAPER_IrOx_Active_Learning_OER\01_references\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561F909D-2686-48E7-9499-4AE0AEFCF75E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561F909D-2686-48E7-9499-4AE0AEFCF75E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="893" yWindow="-98" windowWidth="21704" windowHeight="15196" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="169">
   <si>
     <t>Reference Table</t>
   </si>
@@ -514,6 +514,33 @@
   </si>
   <si>
     <t xml:space="preserve">ML review from </t>
+  </si>
+  <si>
+    <t>To address surface reaction network complexity using scaling relations machine learning and DFT calculations</t>
+  </si>
+  <si>
+    <t>Zachary W. Ulissi; Andrew J. Medford; Thomas Bligaard; Jens K. Nørskov</t>
+  </si>
+  <si>
+    <t>https://www.nature.com/articles/ncomms14621</t>
+  </si>
+  <si>
+    <t>Nature Communications</t>
+  </si>
+  <si>
+    <t>Construction of crystal structure prototype database: methods and applications</t>
+  </si>
+  <si>
+    <t>Chuanxun Su; Jian Lv; Quan Li; Hui Wang; Lijun Zhang; Yanchao Wang; Yanming Ma1</t>
+  </si>
+  <si>
+    <t>https://iopscience.iop.org/article/10.1088/1361-648X/aa63cd</t>
+  </si>
+  <si>
+    <t>Journal of Physics: Condensed Matter</t>
+  </si>
+  <si>
+    <t>Chuanxun's paper (former postdoc)</t>
   </si>
 </sst>
 </file>
@@ -1063,10 +1090,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK52"/>
+  <dimension ref="A1:AMK54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="D43" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2278,6 +2305,49 @@
         <v>159</v>
       </c>
     </row>
+    <row r="53" spans="1:11" ht="15">
+      <c r="C53" s="3">
+        <v>50</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F53" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="H53" s="3">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="15">
+      <c r="C54" s="3">
+        <v>51</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F54" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H54" s="3">
+        <v>2017</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F45" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -2285,9 +2355,11 @@
     <hyperlink ref="F47" r:id="rId3" location="secsectitle0020" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="F48" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="F52" r:id="rId5" xr:uid="{56395913-EB9E-4B91-A75B-9B2D1CBE3E4D}"/>
+    <hyperlink ref="F53" r:id="rId6" xr:uid="{EBA93C19-30B9-4F7A-87C8-7E3AEC3492CB}"/>
+    <hyperlink ref="F54" r:id="rId7" xr:uid="{F133BF83-7646-4CCD-A400-C5DFDE4F3DFB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
-  <picture r:id="rId7"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
+  <picture r:id="rId9"/>
 </worksheet>
 </file>
--- a/01_references/ref_lst.xlsx
+++ b/01_references/ref_lst.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22021"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22122"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raulf2012\Dropbox\01_norskov\00_git_repos\PAPER_IrOx_Active_Learning_OER\01_references\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561F909D-2686-48E7-9499-4AE0AEFCF75E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591540B8-D2A0-49C2-8017-6BAA3E5E7812}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="893" yWindow="-98" windowWidth="21704" windowHeight="15196" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="15196" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="179">
   <si>
     <t>Reference Table</t>
   </si>
@@ -207,6 +207,9 @@
     <t>Chris and Michal</t>
   </si>
   <si>
+    <t>**********</t>
+  </si>
+  <si>
     <t>Evidence for anionic redox activity in a tridimensional-ordered Li-rich positive electrode β-Li2IrO3</t>
   </si>
   <si>
@@ -216,6 +219,9 @@
     <t>Nature Materials</t>
   </si>
   <si>
+    <t>Beta phase comes from here | Chris and Michal</t>
+  </si>
+  <si>
     <t>The stability number as a metric for electrocatalyst stability benchmarking</t>
   </si>
   <si>
@@ -396,9 +402,6 @@
     <t>Adriana Trinchero; Henrik Gronbeck</t>
   </si>
   <si>
-    <t>**********</t>
-  </si>
-  <si>
     <t>Atomic positions independent descriptor for machine learning of material properties</t>
   </si>
   <si>
@@ -541,6 +544,33 @@
   </si>
   <si>
     <t>Chuanxun's paper (former postdoc)</t>
+  </si>
+  <si>
+    <t>Statistical Analysis of Coordination Environments in Oxides</t>
+  </si>
+  <si>
+    <t>David Waroquiers; Geoffroy Hautier</t>
+  </si>
+  <si>
+    <t>https://pubs.acs.org/doi/pdf/10.1021/acs.chemmater.7b02766?rand=c8ki2yr1</t>
+  </si>
+  <si>
+    <t>Coordination environment paper</t>
+  </si>
+  <si>
+    <t>Revised Effective Ionic Radii and Systematic Studies of Interatomic Distances in Halides and Chalcogenides</t>
+  </si>
+  <si>
+    <t>R.D. Shannon</t>
+  </si>
+  <si>
+    <t>http://journals.iucr.org.stanford.idm.oclc.org/a/issues/1976/05/00/a12967/a12967.pdf</t>
+  </si>
+  <si>
+    <t>Acta. Cryst</t>
+  </si>
+  <si>
+    <t>Helps define bond distance cutoff for Ir-O bonds</t>
   </si>
 </sst>
 </file>
@@ -569,6 +599,20 @@
       <charset val="1"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3B3838"/>
+      <name val="Futura LT"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0563C1"/>
+      <name val="Futura LT"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
@@ -578,28 +622,19 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3B3838"/>
+      <color rgb="FF000000"/>
       <name val="Futura LT"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3B3838"/>
+      <color rgb="FFFF0000"/>
       <name val="Futura LT"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0563C1"/>
-      <name val="Futura LT"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Futura LT"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -642,6 +677,12 @@
         <bgColor rgb="FFFFF200"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -663,9 +704,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -676,37 +717,42 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1090,10 +1136,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK54"/>
+  <dimension ref="A1:AMK56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D43" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="J55" sqref="J55"/>
+    <sheetView tabSelected="1" topLeftCell="B36" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1120,1232 +1166,1008 @@
       <c r="A2" s="3"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="12">
+      <c r="C4" s="3">
         <v>1</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="3">
         <v>2017</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="9">
         <v>2</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="3">
         <v>1996</v>
       </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="12"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="3">
         <v>3</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="3">
         <v>2015</v>
       </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="12"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12">
+      <c r="C7" s="3">
         <v>4</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="3">
         <v>2011</v>
       </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="3">
         <v>5</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="3">
         <v>2009</v>
       </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12">
+      <c r="C9" s="3">
         <v>6</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="12"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="10">
         <v>7</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16" t="s">
+      <c r="F10" s="12"/>
+      <c r="G10" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="12">
         <v>2013</v>
       </c>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="12"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="12">
+      <c r="C11" s="3">
         <v>8</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12">
+      <c r="H11" s="3">
         <v>2016</v>
       </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12" t="s">
+      <c r="J11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="12"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="13">
         <v>9</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="3">
         <v>2001</v>
       </c>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12" t="s">
+      <c r="J12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="12"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12">
+      <c r="C13" s="3">
         <v>10</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="3">
         <v>2017</v>
       </c>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12">
+      <c r="C14" s="3">
         <v>11</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="3">
         <v>2012</v>
       </c>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="16">
+      <c r="C15" s="12">
         <v>12</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12">
+      <c r="H15" s="3">
         <v>2017</v>
       </c>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12" t="s">
+      <c r="J15" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="K15" s="12"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12">
+      <c r="C16" s="3">
         <v>13</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12" t="s">
+      <c r="G16" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16" s="3">
         <v>2018</v>
       </c>
-      <c r="I16" s="12" t="s">
+      <c r="I16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="18">
+    </row>
+    <row r="17" spans="1:10">
+      <c r="C17" s="14">
         <v>14</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="3">
         <v>2016</v>
       </c>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12" t="s">
+      <c r="J17" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="K17" s="12"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="19">
+    </row>
+    <row r="18" spans="1:10" ht="15">
+      <c r="A18" s="24"/>
+      <c r="B18" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="23">
         <v>15</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" s="3">
+        <v>2017</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="C19" s="3">
+        <v>16</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19" s="3">
+        <v>2018</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="C20" s="14">
+        <v>17</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H20" s="3">
+        <v>2017</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="C21" s="12">
+        <v>18</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H21" s="3">
+        <v>2017</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="C22" s="3">
+        <v>19</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H22" s="3">
+        <v>2015</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="C23" s="3">
+        <v>20</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H23" s="3">
+        <v>2019</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="C24" s="12">
+        <v>21</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H24" s="3">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="C25" s="12">
+        <v>22</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H25" s="3">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="C26" s="12">
+        <v>23</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H26" s="3">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="C27" s="12">
+        <v>24</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H27" s="3">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="C28" s="3">
+        <v>25</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H28" s="3">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="C29" s="3">
+        <v>26</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H29" s="3">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="C30" s="3">
+        <v>27</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H30" s="3">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="C31" s="12">
+        <v>28</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H31" s="3">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="C32" s="3">
+        <v>29</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H32" s="3">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="C33" s="3">
+        <v>30</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H33" s="3">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="C34" s="3">
+        <v>31</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H34" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="C35" s="3">
+        <v>32</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="C36" s="3">
+        <v>33</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H36" s="3">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="C37" s="3">
+        <v>34</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H37" s="3">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="C38" s="3">
+        <v>35</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H38" s="3">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="B39" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39" s="3">
+        <v>36</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H39" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="C40" s="3">
+        <v>37</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H40" s="3">
+        <v>2008</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="B41" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C41" s="3">
+        <v>38</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H41" s="3">
+        <v>2018</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="C42" s="3">
+        <v>39</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H42" s="3">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="B43" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="H18" s="12">
+      <c r="C43" s="13">
+        <v>40</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H43" s="3">
+        <v>2018</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="3">
+        <v>41</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H44" s="3">
+        <v>2019</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C45" s="3">
+        <v>42</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F45" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="H45" s="3">
+        <v>2019</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="15"/>
+      <c r="C46" s="3">
+        <v>43</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F46" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="G46" s="16"/>
+      <c r="H46" s="3">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="15"/>
+      <c r="C47" s="3">
+        <v>44</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F47" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="H47" s="3">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="15"/>
+      <c r="B48" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C48" s="17">
+        <v>45</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F48" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="H48" s="3">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="49" spans="3:10">
+      <c r="C49" s="3">
+        <v>46</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H49" s="3">
+        <v>2011</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="50" spans="3:10">
+      <c r="C50" s="3">
+        <v>47</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E50" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="H50" s="3">
+        <v>1999</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="51" spans="3:10">
+      <c r="C51" s="3">
+        <v>48</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E51" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="H51" s="3">
         <v>2017</v>
       </c>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="K18" s="12"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="12">
-        <v>16</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="H19" s="12">
-        <v>2018</v>
-      </c>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="K19" s="12"/>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="10"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="18">
-        <v>17</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H20" s="12">
-        <v>2017</v>
-      </c>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="K20" s="12"/>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="16">
-        <v>18</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="H21" s="12">
-        <v>2017</v>
-      </c>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="K21" s="12"/>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12">
-        <v>19</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="H22" s="12">
-        <v>2015</v>
-      </c>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="K22" s="12"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12">
-        <v>20</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="H23" s="12">
-        <v>2019</v>
-      </c>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="K23" s="12"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="16">
-        <v>21</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12">
-        <v>2019</v>
-      </c>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="10"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="16">
-        <v>22</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12">
-        <v>2018</v>
-      </c>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="10"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="16">
-        <v>23</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12">
-        <v>2019</v>
-      </c>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="10"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="16">
-        <v>24</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12">
-        <v>2019</v>
-      </c>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="10"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="12">
-        <v>25</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12">
-        <v>2019</v>
-      </c>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="10"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="12">
-        <v>26</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12">
-        <v>2017</v>
-      </c>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="10"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="12">
-        <v>27</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12">
-        <v>2017</v>
-      </c>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="10"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="16">
-        <v>28</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12">
-        <v>2018</v>
-      </c>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="10"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="12">
-        <v>29</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12">
-        <v>2018</v>
-      </c>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="10"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="12">
-        <v>30</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12">
-        <v>2016</v>
-      </c>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="10"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="12">
-        <v>31</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12">
-        <v>2015</v>
-      </c>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="10"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="12">
-        <v>32</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="10"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="12">
-        <v>33</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12">
-        <v>2018</v>
-      </c>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="10"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="12">
-        <v>34</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E37" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12">
-        <v>2019</v>
-      </c>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="10"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="12">
-        <v>35</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12">
-        <v>2018</v>
-      </c>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="10"/>
-      <c r="B39" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="C39" s="12">
-        <v>36</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12">
-        <v>2015</v>
-      </c>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="10"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="12">
-        <v>37</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12">
-        <v>2008</v>
-      </c>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="K40" s="12"/>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="10"/>
-      <c r="B41" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C41" s="12">
-        <v>38</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="H41" s="12">
-        <v>2018</v>
-      </c>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="K41" s="12"/>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="10"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="12">
-        <v>39</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="E42" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12">
-        <v>2014</v>
-      </c>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="10"/>
-      <c r="B43" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="C43" s="17">
-        <v>40</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="E43" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H43" s="12">
-        <v>2018</v>
-      </c>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="K43" s="12"/>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C44" s="12">
-        <v>41</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E44" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="H44" s="12">
-        <v>2019</v>
-      </c>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="K44" s="12"/>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="C45" s="12">
-        <v>42</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="F45" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12">
-        <v>2019</v>
-      </c>
-      <c r="I45" s="12"/>
-      <c r="J45" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="K45" s="12"/>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="20"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="12">
-        <v>43</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="F46" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="G46" s="21"/>
-      <c r="H46" s="12">
-        <v>2018</v>
-      </c>
-      <c r="I46" s="12"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="12"/>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="20"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="12">
-        <v>44</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="F47" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12">
-        <v>2019</v>
-      </c>
-      <c r="I47" s="12"/>
-      <c r="J47" s="12"/>
-      <c r="K47" s="12"/>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="20"/>
-      <c r="B48" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="C48" s="22">
-        <v>45</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="F48" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12">
-        <v>2019</v>
-      </c>
-      <c r="I48" s="12"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="12"/>
-    </row>
-    <row r="49" spans="1:11">
-      <c r="A49" s="10"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="12">
-        <v>46</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="E49" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="F49" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12">
-        <v>2011</v>
-      </c>
-      <c r="I49" s="12"/>
-      <c r="J49" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="K49" s="12"/>
-    </row>
-    <row r="50" spans="1:11" ht="15">
-      <c r="A50" s="10"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="12">
-        <v>47</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="E50" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12">
-        <v>1999</v>
-      </c>
-      <c r="I50" s="12"/>
-      <c r="J50" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="K50" s="12"/>
-    </row>
-    <row r="51" spans="1:11" ht="15">
-      <c r="A51" s="10"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="12">
-        <v>48</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="E51" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12">
-        <v>2017</v>
-      </c>
-      <c r="I51" s="12"/>
-      <c r="J51" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="K51" s="12"/>
-    </row>
-    <row r="52" spans="1:11" ht="15">
+      <c r="J51" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="52" spans="3:10">
       <c r="C52" s="3">
         <v>49</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="F52" s="24" t="s">
         <v>157</v>
       </c>
+      <c r="F52" s="19" t="s">
+        <v>158</v>
+      </c>
       <c r="G52" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H52" s="3">
         <v>2019</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="15">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="53" spans="3:10">
       <c r="C53" s="3">
         <v>50</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="F53" s="24" t="s">
         <v>162</v>
       </c>
+      <c r="F53" s="19" t="s">
+        <v>163</v>
+      </c>
       <c r="G53" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H53" s="3">
         <v>2017</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="15">
+    <row r="54" spans="3:10">
       <c r="C54" s="3">
         <v>51</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="F54" s="24" t="s">
         <v>166</v>
       </c>
+      <c r="F54" s="19" t="s">
+        <v>167</v>
+      </c>
       <c r="G54" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H54" s="3">
         <v>2017</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="55" spans="3:10" ht="15">
+      <c r="C55" s="3">
+        <v>52</v>
+      </c>
+      <c r="D55" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="E55" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="F55" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="H55" s="3">
+        <v>2017</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="56" spans="3:10" ht="15">
+      <c r="C56" s="3">
+        <v>53</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F56" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="H56" s="3">
+        <v>1976</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -2354,12 +2176,14 @@
     <hyperlink ref="F46" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="F47" r:id="rId3" location="secsectitle0020" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="F48" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="F52" r:id="rId5" xr:uid="{56395913-EB9E-4B91-A75B-9B2D1CBE3E4D}"/>
-    <hyperlink ref="F53" r:id="rId6" xr:uid="{EBA93C19-30B9-4F7A-87C8-7E3AEC3492CB}"/>
-    <hyperlink ref="F54" r:id="rId7" xr:uid="{F133BF83-7646-4CCD-A400-C5DFDE4F3DFB}"/>
+    <hyperlink ref="F52" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F53" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F54" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F55" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="F56" r:id="rId9" xr:uid="{61C294A8-93CE-4EB3-B519-F890CA93FE76}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
-  <picture r:id="rId9"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <picture r:id="rId10"/>
 </worksheet>
 </file>
--- a/01_references/ref_lst.xlsx
+++ b/01_references/ref_lst.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22206"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="204">
   <si>
     <t>Reference Table</t>
   </si>
@@ -571,6 +571,81 @@
   </si>
   <si>
     <t>Helps define bond distance cutoff for Ir-O bonds</t>
+  </si>
+  <si>
+    <t>Python Materials Genomics (pymatgen): A robust, open-source python library for materials analysis</t>
+  </si>
+  <si>
+    <t>Ong, Shyue Ping; Richards, William Davidson; Jain, Anubhav; Hautier, Geoffroy; Kocher, Michael; Cholia, Shreyas; Gunter, Dan; Chevrier, Vincent L.; Persson, Kristin A.; Ceder, Gerbrand</t>
+  </si>
+  <si>
+    <t>https://www-sciencedirect-com.stanford.idm.oclc.org/science/article/pii/S0927025612006295?via%3Dihub</t>
+  </si>
+  <si>
+    <t>Elsevier Computational Materials Science</t>
+  </si>
+  <si>
+    <t>Pymatgen reference</t>
+  </si>
+  <si>
+    <t>Genetic algorithms for computational materials discovery accelerated by machine learning</t>
+  </si>
+  <si>
+    <t>Paul C. Jennings, Steen Lysgaard, Jens Strabo Hummelshøj, Tejs Vegge &amp; Thomas Bligaard</t>
+  </si>
+  <si>
+    <t>https://www.nature.com/articles/s41524-019-0181-4</t>
+  </si>
+  <si>
+    <t>Nature Computational Materials</t>
+  </si>
+  <si>
+    <t>Active learning</t>
+  </si>
+  <si>
+    <t>Raman-scattering study of crystallized MF3 compounds (M=Al,Cr,Ga,V,Fe,In): An approach to the short-range-order force constants</t>
+  </si>
+  <si>
+    <t>Daniel, P.; Bulou, A.; Rousseau, M.; Nouet, J.; Leblanc, M.</t>
+  </si>
+  <si>
+    <t>https://journals.aps.org/prb/abstract/10.1103/PhysRevB.42.10545</t>
+  </si>
+  <si>
+    <t>MF3 compounds</t>
+  </si>
+  <si>
+    <t>Thermal expansion and phase transitions of α-AlF3</t>
+  </si>
+  <si>
+    <t>Morelock, Cody R.; Hancock, Justin C.; Wilkinson, Angus P.</t>
+  </si>
+  <si>
+    <t>https://www-sciencedirect-com.stanford.idm.oclc.org/science/article/pii/S0022459614003363</t>
+  </si>
+  <si>
+    <t>Source of alpha-AlF3 phase name</t>
+  </si>
+  <si>
+    <t>Van Den Bossche, Maxime; Grönbeck, Henrik; Hammer, Bjørk</t>
+  </si>
+  <si>
+    <t>https://pubs-acs-org.stanford.idm.oclc.org/doi/full/10.1021/acs.jctc.8b00039</t>
+  </si>
+  <si>
+    <t>J. Chem. Theory Comput</t>
+  </si>
+  <si>
+    <t>Activation of surface oxygen sites on an iridium-based model catalyst for the oxygen evolution reaction</t>
+  </si>
+  <si>
+    <t>Grimaud, Alexis; Demortiere, Arnaud; Saubanere, Matthieu; Dachraoui, Walid; Duchamp, Martial; Doublet, Marie Liesse; Tarascon, Jean Marie</t>
+  </si>
+  <si>
+    <t>https://www.nature.com/articles/nenergy2016189</t>
+  </si>
+  <si>
+    <t>Michal gave me this</t>
   </si>
 </sst>
 </file>
@@ -1136,10 +1211,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK56"/>
+  <dimension ref="A1:AMK62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B36" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="J57" sqref="J57"/>
+    <sheetView tabSelected="1" topLeftCell="D38" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="J63" sqref="J63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2170,6 +2245,135 @@
         <v>178</v>
       </c>
     </row>
+    <row r="57" spans="3:10" ht="15">
+      <c r="C57" s="3">
+        <v>54</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F57" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H57" s="3">
+        <v>2013</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="58" spans="3:10" ht="15">
+      <c r="C58" s="3">
+        <v>55</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F58" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="H58" s="3">
+        <v>2019</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="59" spans="3:10" ht="15">
+      <c r="C59" s="3">
+        <v>56</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F59" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H59" s="3">
+        <v>1990</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="60" spans="3:10" ht="15">
+      <c r="C60" s="3">
+        <v>57</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F60" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="H60" s="3">
+        <v>2014</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="61" spans="3:10" ht="15">
+      <c r="C61" s="3">
+        <v>58</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F61" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="H61" s="3">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="62" spans="3:10" ht="15">
+      <c r="C62" s="3">
+        <v>59</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F62" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="H62" s="3">
+        <v>2017</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F45" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -2181,9 +2385,15 @@
     <hyperlink ref="F54" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
     <hyperlink ref="F55" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
     <hyperlink ref="F56" r:id="rId9" xr:uid="{61C294A8-93CE-4EB3-B519-F890CA93FE76}"/>
+    <hyperlink ref="F57" r:id="rId10" xr:uid="{991DC90B-7BD6-4ABF-A278-D5A0460EC750}"/>
+    <hyperlink ref="F58" r:id="rId11" xr:uid="{5C6459D1-3533-4F09-BA3D-227972D6CDB6}"/>
+    <hyperlink ref="F59" r:id="rId12" xr:uid="{9D8CE753-06FA-4E18-AFB8-6A8D2AC8DD25}"/>
+    <hyperlink ref="F60" r:id="rId13" xr:uid="{B5FE6781-BC2B-4D3B-ADA1-36DC1BF2624C}"/>
+    <hyperlink ref="F61" r:id="rId14" xr:uid="{B46FD5B6-4681-40D4-A139-049856D80968}"/>
+    <hyperlink ref="F62" r:id="rId15" xr:uid="{21C268F1-45BB-4C97-AC69-12131B7183E4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <picture r:id="rId10"/>
+  <picture r:id="rId16"/>
 </worksheet>
 </file>
--- a/01_references/ref_lst.xlsx
+++ b/01_references/ref_lst.xlsx
@@ -1211,10 +1211,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK62"/>
+  <dimension ref="A1:AMK63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D38" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="J63" sqref="J63"/>
+    <sheetView tabSelected="1" topLeftCell="C33" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2372,6 +2372,11 @@
       </c>
       <c r="J62" s="3" t="s">
         <v>203</v>
+      </c>
+    </row>
+    <row r="63" spans="3:10">
+      <c r="C63" s="3">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/01_references/ref_lst.xlsx
+++ b/01_references/ref_lst.xlsx
@@ -1214,7 +1214,7 @@
   <dimension ref="A1:AMK63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C33" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/01_references/ref_lst.xlsx
+++ b/01_references/ref_lst.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="207">
   <si>
     <t>Reference Table</t>
   </si>
@@ -646,6 +646,15 @@
   </si>
   <si>
     <t>Michal gave me this</t>
+  </si>
+  <si>
+    <t>An Atomistic Machine Learning Package for Surface Science and Catalysis</t>
+  </si>
+  <si>
+    <t>Martin Hangaard Hansen, José A. Garrido Torres, Paul C. Jennings, Ziyun Wang, Jacob R. Boes, Osman G. Mamun, Thomas Bligaard</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/1904.00904</t>
   </si>
 </sst>
 </file>
@@ -1213,8 +1222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C33" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2374,9 +2383,21 @@
         <v>203</v>
       </c>
     </row>
-    <row r="63" spans="3:10">
+    <row r="63" spans="3:10" ht="15">
       <c r="C63" s="3">
         <v>60</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F63" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="H63" s="3">
+        <v>2019</v>
       </c>
     </row>
   </sheetData>
@@ -2396,9 +2417,10 @@
     <hyperlink ref="F60" r:id="rId13" xr:uid="{B5FE6781-BC2B-4D3B-ADA1-36DC1BF2624C}"/>
     <hyperlink ref="F61" r:id="rId14" xr:uid="{B46FD5B6-4681-40D4-A139-049856D80968}"/>
     <hyperlink ref="F62" r:id="rId15" xr:uid="{21C268F1-45BB-4C97-AC69-12131B7183E4}"/>
+    <hyperlink ref="F63" r:id="rId16" xr:uid="{3BC1531C-E56C-4339-A77C-36A89A51D369}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <picture r:id="rId16"/>
+  <picture r:id="rId17"/>
 </worksheet>
 </file>
--- a/01_references/ref_lst.xlsx
+++ b/01_references/ref_lst.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22206"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="210">
   <si>
     <t>Reference Table</t>
   </si>
@@ -655,6 +655,15 @@
   </si>
   <si>
     <t>https://arxiv.org/abs/1904.00904</t>
+  </si>
+  <si>
+    <t>Inverse Design of Solid-State Materials via a Continuous Representation</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S2590238519301754</t>
+  </si>
+  <si>
+    <t>TRI folks made us aware</t>
   </si>
 </sst>
 </file>
@@ -790,7 +799,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -837,6 +846,8 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1220,10 +1231,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK63"/>
+  <dimension ref="A1:AMK64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2091,7 +2102,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="49" spans="3:10">
+    <row r="49" spans="2:10">
       <c r="C49" s="3">
         <v>46</v>
       </c>
@@ -2111,7 +2122,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="50" spans="3:10">
+    <row r="50" spans="2:10">
       <c r="C50" s="3">
         <v>47</v>
       </c>
@@ -2128,7 +2139,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="51" spans="3:10">
+    <row r="51" spans="2:10">
       <c r="C51" s="3">
         <v>48</v>
       </c>
@@ -2145,7 +2156,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="52" spans="3:10">
+    <row r="52" spans="2:10">
       <c r="C52" s="3">
         <v>49</v>
       </c>
@@ -2168,7 +2179,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="53" spans="3:10">
+    <row r="53" spans="2:10">
       <c r="C53" s="3">
         <v>50</v>
       </c>
@@ -2188,7 +2199,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="54" spans="3:10">
+    <row r="54" spans="2:10" ht="15">
       <c r="C54" s="3">
         <v>51</v>
       </c>
@@ -2198,7 +2209,7 @@
       <c r="E54" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="F54" s="19" t="s">
+      <c r="F54" s="26" t="s">
         <v>167</v>
       </c>
       <c r="G54" s="3" t="s">
@@ -2211,7 +2222,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="55" spans="3:10" ht="15">
+    <row r="55" spans="2:10" ht="15">
       <c r="C55" s="3">
         <v>52</v>
       </c>
@@ -2231,7 +2242,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="56" spans="3:10" ht="15">
+    <row r="56" spans="2:10" ht="15">
       <c r="C56" s="3">
         <v>53</v>
       </c>
@@ -2254,7 +2265,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="57" spans="3:10" ht="15">
+    <row r="57" spans="2:10" ht="15">
       <c r="C57" s="3">
         <v>54</v>
       </c>
@@ -2277,7 +2288,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="58" spans="3:10" ht="15">
+    <row r="58" spans="2:10" ht="15">
       <c r="C58" s="3">
         <v>55</v>
       </c>
@@ -2300,7 +2311,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="59" spans="3:10" ht="15">
+    <row r="59" spans="2:10" ht="15">
       <c r="C59" s="3">
         <v>56</v>
       </c>
@@ -2323,7 +2334,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="60" spans="3:10" ht="15">
+    <row r="60" spans="2:10" ht="15">
       <c r="C60" s="3">
         <v>57</v>
       </c>
@@ -2343,7 +2354,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="61" spans="3:10" ht="15">
+    <row r="61" spans="2:10" ht="15">
       <c r="C61" s="3">
         <v>58</v>
       </c>
@@ -2363,7 +2374,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="62" spans="3:10" ht="15">
+    <row r="62" spans="2:10" ht="15">
       <c r="C62" s="3">
         <v>59</v>
       </c>
@@ -2383,7 +2394,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="63" spans="3:10" ht="15">
+    <row r="63" spans="2:10" ht="15">
       <c r="C63" s="3">
         <v>60</v>
       </c>
@@ -2398,6 +2409,26 @@
       </c>
       <c r="H63" s="3">
         <v>2019</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" ht="15">
+      <c r="B64" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C64" s="27">
+        <v>61</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="F64" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="H64" s="3">
+        <v>2019</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -2418,9 +2449,10 @@
     <hyperlink ref="F61" r:id="rId14" xr:uid="{B46FD5B6-4681-40D4-A139-049856D80968}"/>
     <hyperlink ref="F62" r:id="rId15" xr:uid="{21C268F1-45BB-4C97-AC69-12131B7183E4}"/>
     <hyperlink ref="F63" r:id="rId16" xr:uid="{3BC1531C-E56C-4339-A77C-36A89A51D369}"/>
+    <hyperlink ref="F64" r:id="rId17" xr:uid="{CC7C5B78-C941-47A9-81CC-7DC96A33869C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <picture r:id="rId17"/>
+  <picture r:id="rId18"/>
 </worksheet>
 </file>
--- a/01_references/ref_lst.xlsx
+++ b/01_references/ref_lst.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -1233,8 +1235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="D35" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1873,7 +1875,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" ht="15">
       <c r="C37" s="3">
         <v>34</v>
       </c>

--- a/01_references/ref_lst.xlsx
+++ b/01_references/ref_lst.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22318"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -18,14 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">Sheet1!$E$9:$H$38</definedName>
   </definedNames>
-  <calcPr calcId="191028" iterateDelta="1E-4"/>
+  <calcPr calcId="191028" iterateDelta="1E-4" calcCompleted="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="243">
   <si>
     <t>Reference Table</t>
   </si>
@@ -80,6 +78,9 @@
     <t>Olivier Matz; Monica Calatayud</t>
   </si>
   <si>
+    <t>https://pubs.acs.org/doi/abs/10.1021/acs.jpcc.7b01990</t>
+  </si>
+  <si>
     <t>J. Phys. Chem. C</t>
   </si>
   <si>
@@ -203,6 +204,9 @@
     <t>Linsey C. Seitz, Colin F Dickens, Jens K. Norskov, Thomas F. Jaramillo</t>
   </si>
   <si>
+    <t>https://science.sciencemag.org/content/353/6303/1011.abstract</t>
+  </si>
+  <si>
     <t>Science</t>
   </si>
   <si>
@@ -666,6 +670,99 @@
   </si>
   <si>
     <t>TRI folks made us aware</t>
+  </si>
+  <si>
+    <t>AICHE</t>
+  </si>
+  <si>
+    <t>Ternary mixed-anion semiconductors with tunable band gaps from machine-learning and crystal structure prediction</t>
+  </si>
+  <si>
+    <t>Maximillian Amsler; Logan Ward; Chris Wolverton</t>
+  </si>
+  <si>
+    <t>https://journals-aps-org.stanford.idm.oclc.org/prmaterials/pdf/10.1103/PhysRevMaterials.3.035404</t>
+  </si>
+  <si>
+    <t>Revealing the Reactivity of the Iridium Trioxide Intermediate for the Oxygen Evolution Reaction in Acidic Media</t>
+  </si>
+  <si>
+    <t>https://pubs.acs.org/doi/10.1021/acs.chemmater.9b01976</t>
+  </si>
+  <si>
+    <t>Beta phase group</t>
+  </si>
+  <si>
+    <t>Insights into the Electrochemical Oxygen Evolution Reaction with ab Initio Calculations and Microkinetic Modeling: Beyond the Limiting Potential Volcano</t>
+  </si>
+  <si>
+    <t>Colin F. Dickens, Charlotte Kirk, Jens K. Nørskov</t>
+  </si>
+  <si>
+    <t>https://pubs.acs.org/doi/10.1021/acs.jpcc.9b03830</t>
+  </si>
+  <si>
+    <t>Colin's microkinetics paper</t>
+  </si>
+  <si>
+    <t>IrO2</t>
+  </si>
+  <si>
+    <t>Benchmarking Hydrogen Evolving Reaction and Oxygen Evolving Reaction Electrocatalysts for Solar Water Splitting Devices</t>
+  </si>
+  <si>
+    <t>Charles C. L. McCrory*†‡Suho Jung†‡Ivonne M. Ferrer†‡Shawn M. Chatman†‡Jonas C. Peters*†‡Thomas F. Jaramillo*†§</t>
+  </si>
+  <si>
+    <t>https://pubs-acs-org.stanford.idm.oclc.org/doi/10.1021/ja510442p</t>
+  </si>
+  <si>
+    <t>Seminal IrO2 reference</t>
+  </si>
+  <si>
+    <t>Solution-Cast Metal Oxide Thin Film Electrocatalysts for Oxygen Evolution</t>
+  </si>
+  <si>
+    <t>Lena TrotochaudJames K. RanneyKerisha N. WilliamsShannon W. Boettcher*</t>
+  </si>
+  <si>
+    <t>https://pubs-acs-org.stanford.idm.oclc.org/doi/10.1021/ja307507a</t>
+  </si>
+  <si>
+    <t>Activity–Stability Trends for the Oxygen Evolution Reaction on Monometallic Oxides in Acidic Environments</t>
+  </si>
+  <si>
+    <t>Nemanja Danilovic†Ramachandran Subbaraman†Kee-Chul Chang†Seo Hyoung Chang†Yijin J. Kang†Joshua Snyder†Arvydas P. Paulikas†Dusan Strmcnik†Yong-Tae Kim‡Deborah Myers§Vojislav R. Stamenkovic†Nenad M. Markovic</t>
+  </si>
+  <si>
+    <t>https://pubs-acs-org.stanford.idm.oclc.org/doi/abs/10.1021/jz501061n</t>
+  </si>
+  <si>
+    <t>A comprehensive review on PEM water electrolysis</t>
+  </si>
+  <si>
+    <t>Author links open overlay panelMarceloCarmoaDavid L.FritzaJürgenMergelaDetlefStoltenab</t>
+  </si>
+  <si>
+    <t>https://www-sciencedirect-com.stanford.idm.oclc.org/science/article/pii/S0360319913002607?via%3Dihub</t>
+  </si>
+  <si>
+    <t>The oxygen evolution reaction on platinum, iridium, ruthenium and their alloys at 80°C in acid solutions</t>
+  </si>
+  <si>
+    <t>Author links open overlay panelM.H.MilesE.A.KlausB.P.GunnJ.R.LockerW.E.SerafinS.Srinivasan</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/0013468678850300?via%3Dihub</t>
+  </si>
+  <si>
+    <t>Electrocatalytic oxygen evolution on reactively sputtered electrochromic iridium oxide films</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G. Beni, L. M. Schiavone, J. L. Shay, W. C. Dautremont-Smith &amp; B. S. Schneider </t>
+  </si>
+  <si>
+    <t>https://www.nature.com/articles/282281a0</t>
   </si>
 </sst>
 </file>
@@ -729,7 +826,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -778,6 +875,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -801,7 +904,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -850,6 +953,10 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1233,10 +1340,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK64"/>
+  <dimension ref="A1:AMK73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D35" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1244,8 +1351,8 @@
     <col min="1" max="1" width="10.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="4.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="102.5703125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="58.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="40.5703125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" style="3" customWidth="1"/>
     <col min="6" max="6" width="13.5703125" style="3" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" style="3" customWidth="1"/>
     <col min="8" max="9" width="9" style="3" customWidth="1"/>
@@ -1297,7 +1404,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" ht="15">
       <c r="C4" s="3">
         <v>1</v>
       </c>
@@ -1307,63 +1414,66 @@
       <c r="E4" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="F4" s="22" t="s">
+        <v>14</v>
+      </c>
       <c r="G4" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H4" s="3">
         <v>2017</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="9">
         <v>2</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H5" s="3">
         <v>1996</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" s="3">
         <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H6" s="3">
         <v>2015</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1371,13 +1481,13 @@
         <v>4</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H7" s="3">
         <v>2011</v>
@@ -1385,19 +1495,19 @@
     </row>
     <row r="8" spans="1:11">
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="3">
         <v>5</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H8" s="3">
         <v>2009</v>
@@ -1408,37 +1518,37 @@
         <v>6</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" s="10">
         <v>7</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H10" s="12">
         <v>2013</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1446,39 +1556,39 @@
         <v>8</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H11" s="3">
         <v>2016</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="B12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" s="13">
         <v>9</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H12" s="3">
         <v>2001</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1486,13 +1596,13 @@
         <v>10</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H13" s="3">
         <v>2017</v>
@@ -1503,13 +1613,13 @@
         <v>11</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" s="3">
         <v>2012</v>
@@ -1520,16 +1630,16 @@
         <v>12</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H15" s="3">
         <v>2017</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1537,63 +1647,66 @@
         <v>13</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H16" s="3">
         <v>2018</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15">
       <c r="C17" s="14">
         <v>14</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H17" s="3">
         <v>2016</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15">
       <c r="A18" s="24"/>
       <c r="B18" s="25" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C18" s="23">
         <v>15</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H18" s="3">
         <v>2017</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1601,19 +1714,19 @@
         <v>16</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H19" s="3">
         <v>2018</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1621,19 +1734,19 @@
         <v>17</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H20" s="3">
         <v>2017</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1641,19 +1754,19 @@
         <v>18</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H21" s="3">
         <v>2017</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1661,19 +1774,19 @@
         <v>19</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H22" s="3">
         <v>2015</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1681,19 +1794,19 @@
         <v>20</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H23" s="3">
         <v>2019</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1701,10 +1814,10 @@
         <v>21</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H24" s="3">
         <v>2019</v>
@@ -1715,10 +1828,10 @@
         <v>22</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H25" s="3">
         <v>2018</v>
@@ -1729,10 +1842,10 @@
         <v>23</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H26" s="3">
         <v>2019</v>
@@ -1743,10 +1856,10 @@
         <v>24</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H27" s="3">
         <v>2019</v>
@@ -1757,10 +1870,10 @@
         <v>25</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H28" s="3">
         <v>2019</v>
@@ -1771,10 +1884,10 @@
         <v>26</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H29" s="3">
         <v>2017</v>
@@ -1785,10 +1898,10 @@
         <v>27</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H30" s="3">
         <v>2017</v>
@@ -1799,10 +1912,10 @@
         <v>28</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H31" s="3">
         <v>2018</v>
@@ -1813,10 +1926,10 @@
         <v>29</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H32" s="3">
         <v>2018</v>
@@ -1827,10 +1940,10 @@
         <v>30</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H33" s="3">
         <v>2016</v>
@@ -1841,10 +1954,10 @@
         <v>31</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H34" s="3">
         <v>2015</v>
@@ -1855,10 +1968,10 @@
         <v>32</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1866,10 +1979,10 @@
         <v>33</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H36" s="3">
         <v>2018</v>
@@ -1880,10 +1993,10 @@
         <v>34</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H37" s="3">
         <v>2019</v>
@@ -1894,10 +2007,10 @@
         <v>35</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H38" s="3">
         <v>2018</v>
@@ -1905,16 +2018,16 @@
     </row>
     <row r="39" spans="1:10">
       <c r="B39" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C39" s="3">
         <v>36</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H39" s="3">
         <v>2015</v>
@@ -1925,36 +2038,36 @@
         <v>37</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H40" s="3">
         <v>2008</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="B41" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C41" s="3">
         <v>38</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H41" s="3">
         <v>2018</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1962,10 +2075,10 @@
         <v>39</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H42" s="3">
         <v>2014</v>
@@ -1973,77 +2086,77 @@
     </row>
     <row r="43" spans="1:10">
       <c r="B43" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C43" s="13">
         <v>40</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H43" s="3">
         <v>2018</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="15" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C44" s="3">
         <v>41</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H44" s="3">
         <v>2019</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="15" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C45" s="3">
         <v>42</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H45" s="3">
         <v>2019</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -2052,13 +2165,13 @@
         <v>43</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G46" s="16"/>
       <c r="H46" s="3">
@@ -2071,13 +2184,13 @@
         <v>44</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H47" s="3">
         <v>2019</v>
@@ -2086,19 +2199,19 @@
     <row r="48" spans="1:10">
       <c r="A48" s="15"/>
       <c r="B48" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C48" s="17">
         <v>45</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H48" s="3">
         <v>2019</v>
@@ -2109,19 +2222,19 @@
         <v>46</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H49" s="3">
         <v>2011</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="50" spans="2:10">
@@ -2129,16 +2242,16 @@
         <v>47</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H50" s="3">
         <v>1999</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="51" spans="2:10">
@@ -2146,16 +2259,16 @@
         <v>48</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H51" s="3">
         <v>2017</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="52" spans="2:10">
@@ -2163,22 +2276,22 @@
         <v>49</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F52" s="19" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H52" s="3">
         <v>2019</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="53" spans="2:10">
@@ -2186,16 +2299,16 @@
         <v>50</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F53" s="19" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H53" s="3">
         <v>2017</v>
@@ -2206,22 +2319,22 @@
         <v>51</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F54" s="26" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H54" s="3">
         <v>2017</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="55" spans="2:10" ht="15">
@@ -2229,19 +2342,19 @@
         <v>52</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E55" s="21" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F55" s="22" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H55" s="3">
         <v>2017</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="56" spans="2:10" ht="15">
@@ -2249,22 +2362,22 @@
         <v>53</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F56" s="22" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H56" s="3">
         <v>1976</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="57" spans="2:10" ht="15">
@@ -2272,22 +2385,22 @@
         <v>54</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F57" s="22" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H57" s="3">
         <v>2013</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="58" spans="2:10" ht="15">
@@ -2295,22 +2408,22 @@
         <v>55</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F58" s="22" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H58" s="3">
         <v>2019</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="59" spans="2:10" ht="15">
@@ -2318,22 +2431,22 @@
         <v>56</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F59" s="22" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H59" s="3">
         <v>1990</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="60" spans="2:10" ht="15">
@@ -2341,19 +2454,19 @@
         <v>57</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F60" s="22" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H60" s="3">
         <v>2014</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="61" spans="2:10" ht="15">
@@ -2361,16 +2474,16 @@
         <v>58</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F61" s="22" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H61" s="3">
         <v>2018</v>
@@ -2381,19 +2494,19 @@
         <v>59</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F62" s="22" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H62" s="3">
         <v>2017</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="63" spans="2:10" ht="15">
@@ -2401,13 +2514,13 @@
         <v>60</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F63" s="22" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H63" s="3">
         <v>2019</v>
@@ -2415,22 +2528,202 @@
     </row>
     <row r="64" spans="2:10" ht="15">
       <c r="B64" s="25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C64" s="27">
         <v>61</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F64" s="22" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H64" s="3">
         <v>2019</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="15">
+      <c r="A65" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C65" s="3">
+        <v>62</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F65" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="H65" s="3">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="15">
+      <c r="B66" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C66" s="28">
+        <v>63</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F66" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="H66" s="3">
+        <v>2019</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="15">
+      <c r="C67" s="3">
+        <v>64</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="F67" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="H67" s="3">
+        <v>2019</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="15">
+      <c r="A68" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B68" s="29"/>
+      <c r="C68" s="3">
+        <v>65</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="F68" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="H68" s="3">
+        <v>2015</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="15">
+      <c r="B69" s="29"/>
+      <c r="C69" s="3">
+        <v>66</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="F69" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="H69" s="3">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="15">
+      <c r="B70" s="29"/>
+      <c r="C70" s="3">
+        <v>67</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="F70" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="H70" s="3">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="15">
+      <c r="B71" s="29"/>
+      <c r="C71" s="3">
+        <v>68</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="F71" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="H71" s="3">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="15">
+      <c r="B72" s="29"/>
+      <c r="C72" s="3">
+        <v>69</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="F72" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="H72" s="3">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="15">
+      <c r="B73" s="29"/>
+      <c r="C73" s="3">
+        <v>70</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="F73" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="H73" s="3">
+        <v>1979</v>
       </c>
     </row>
   </sheetData>
@@ -2452,9 +2745,20 @@
     <hyperlink ref="F62" r:id="rId15" xr:uid="{21C268F1-45BB-4C97-AC69-12131B7183E4}"/>
     <hyperlink ref="F63" r:id="rId16" xr:uid="{3BC1531C-E56C-4339-A77C-36A89A51D369}"/>
     <hyperlink ref="F64" r:id="rId17" xr:uid="{CC7C5B78-C941-47A9-81CC-7DC96A33869C}"/>
+    <hyperlink ref="F65" r:id="rId18" xr:uid="{A7C4662F-A8BD-4753-ADDB-D4031464A39D}"/>
+    <hyperlink ref="F66" r:id="rId19" xr:uid="{3382ECEC-6199-4F7C-9293-D36AC9658714}"/>
+    <hyperlink ref="F67" r:id="rId20" xr:uid="{8B9324BE-F4E5-4737-A45A-5EA92A16DDEB}"/>
+    <hyperlink ref="F4" r:id="rId21" xr:uid="{2D4F4073-D716-4F4B-93C9-B684A7FC5FA0}"/>
+    <hyperlink ref="F17" r:id="rId22" xr:uid="{52237CA4-C857-4A38-BB65-8DD96480ACD3}"/>
+    <hyperlink ref="F68" r:id="rId23" xr:uid="{9B10198A-AC0E-4FC6-8775-BF40751D0098}"/>
+    <hyperlink ref="F69" r:id="rId24" xr:uid="{8AB30FE5-510C-415E-B490-1AD37234C1F4}"/>
+    <hyperlink ref="F70" r:id="rId25" xr:uid="{13B6299F-1400-43C0-820C-42452406FF76}"/>
+    <hyperlink ref="F71" r:id="rId26" xr:uid="{62FAA820-32EA-4255-943E-E779FAD26734}"/>
+    <hyperlink ref="F72" r:id="rId27" xr:uid="{DB082187-12BA-4761-8828-97D3C1DDED72}"/>
+    <hyperlink ref="F73" r:id="rId28" xr:uid="{AC32DF83-13CC-4DA3-9361-749EA110261E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <picture r:id="rId18"/>
+  <picture r:id="rId29"/>
 </worksheet>
 </file>
--- a/01_references/ref_lst.xlsx
+++ b/01_references/ref_lst.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="247">
   <si>
     <t>Reference Table</t>
   </si>
@@ -763,6 +763,18 @@
   </si>
   <si>
     <t>https://www.nature.com/articles/282281a0</t>
+  </si>
+  <si>
+    <t>Systematic Investigation of Iridium-Based Bimetallic Thin Film Catalysts for the Oxygen Evolution Reaction in Acidic Media</t>
+  </si>
+  <si>
+    <t>Alaina L. StricklerRaul A. FloresLaurie A. KingJens K. NørskovMichal Bajdich*Thomas F. Jaramillo*</t>
+  </si>
+  <si>
+    <t>https://pubs.acs.org/doi/abs/10.1021/acsami.9b13697</t>
+  </si>
+  <si>
+    <t>My doped IrO2 paper</t>
   </si>
 </sst>
 </file>
@@ -1340,10 +1352,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK73"/>
+  <dimension ref="A1:AMK74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="H70" sqref="H70"/>
+      <selection activeCell="J75" sqref="J75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2724,6 +2736,26 @@
       </c>
       <c r="H73" s="3">
         <v>1979</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="15">
+      <c r="C74" s="3">
+        <v>71</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="F74" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="H74" s="3">
+        <v>2019</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -2756,9 +2788,10 @@
     <hyperlink ref="F71" r:id="rId26" xr:uid="{62FAA820-32EA-4255-943E-E779FAD26734}"/>
     <hyperlink ref="F72" r:id="rId27" xr:uid="{DB082187-12BA-4761-8828-97D3C1DDED72}"/>
     <hyperlink ref="F73" r:id="rId28" xr:uid="{AC32DF83-13CC-4DA3-9361-749EA110261E}"/>
+    <hyperlink ref="F74" r:id="rId29" xr:uid="{0B0F8097-BFDD-4A8A-9DC0-697D13A101BD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <picture r:id="rId29"/>
+  <picture r:id="rId30"/>
 </worksheet>
 </file>
--- a/01_references/ref_lst.xlsx
+++ b/01_references/ref_lst.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="291">
   <si>
     <t>Reference Table</t>
   </si>
@@ -763,6 +763,150 @@
   </si>
   <si>
     <t>https://www.nature.com/articles/282281a0</t>
+  </si>
+  <si>
+    <t>Systematic Investigation of Iridium-Based Bimetallic Thin Film Catalysts for the Oxygen Evolution Reaction in Acidic Media</t>
+  </si>
+  <si>
+    <t>Alaina L. StricklerRaul A. FloresLaurie A. KingJens K. NørskovMichal Bajdich*Thomas F. Jaramillo*</t>
+  </si>
+  <si>
+    <t>https://pubs.acs.org/doi/abs/10.1021/acsami.9b13697</t>
+  </si>
+  <si>
+    <t>My doped IrO2 paper</t>
+  </si>
+  <si>
+    <t>OER</t>
+  </si>
+  <si>
+    <t>Universality in Oxygen Evolution Electrocatalysis on Oxide Surfaces</t>
+  </si>
+  <si>
+    <t>Isabela C. Man  Hai‐Yan Su  Federico Calle‐Vallejo  Dr. Heine A. Hansen  Dr. José I. Martínez  Nilay G. Inoglu  Prof. John Kitchin  Prof. Thomas F. Jaramillo  Prof. Jens K. Nørskov  Jan Rossmeisl</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/abs/10.1002/cctc.201000397</t>
+  </si>
+  <si>
+    <t>modelling</t>
+  </si>
+  <si>
+    <t>Electrolysis of water on oxide surfaces</t>
+  </si>
+  <si>
+    <t>Author links open overlay panelJ.RossmeislaZ.-W.QubH.ZhubG.-J.KroesbJ.K.Nørskova</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0022072806006371</t>
+  </si>
+  <si>
+    <t>references</t>
+  </si>
+  <si>
+    <t>Origin of the Overpotential for Oxygen Reduction at a Fuel-Cell Cathode</t>
+  </si>
+  <si>
+    <t>J. K. NørskovJ. RossmeislA. LogadottirL. LindqvistJ. R. KitchinT. BligaardH. Jónsson</t>
+  </si>
+  <si>
+    <t>https://pubs.acs.org/doi/10.1021/jp047349j</t>
+  </si>
+  <si>
+    <t>Identification of Highly Active Fe Sites in (Ni,Fe)OOH for Electrocatalytic Water Splitting</t>
+  </si>
+  <si>
+    <t>Daniel Friebel*†§Mary W. Louie†‡Michal Bajdich§Kai E. Sanwald§∥Yun Cai†‡Anna M. Wise⊥Mu-Jeng Cheng†‡Dimosthenis Sokaras⊥Tsu-Chien Weng⊥Roberto Alonso-Mori#Ryan C. Davis⊥John R. Bargar⊥Jens K. Nørskov§Anders Nilsson†§⊥Alexis T. Bell*†‡</t>
+  </si>
+  <si>
+    <t>https://pubs.acs.org/doi/10.1021/ja511559d</t>
+  </si>
+  <si>
+    <t>Theoretical Investigation of the Activity of Cobalt Oxides for the Electrochemical Oxidation of Water</t>
+  </si>
+  <si>
+    <t>Michal Bajdich†§Mónica García-Mota‡Aleksandra Vojvodic‡Jens K. Nørskov*‡Alexis T. Bell*†§</t>
+  </si>
+  <si>
+    <t>https://pubs.acs.org/doi/10.1021/ja405997s</t>
+  </si>
+  <si>
+    <t>Identifying the Active Surfaces of Electrochemically Tuned LiCoO2 for Oxygen Evolution Reaction</t>
+  </si>
+  <si>
+    <t>Zhiyi Lu†OrcidGuangxu Chen†Yanbin Li†Haotian Wang‡Jin Xie†Lei Liao†Chong Liu†Yayuan Liu†Tong Wu†Yuzhang Li†OrcidAlan C. Luntz§OrcidMichal Bajdich*§∥Yi Cui*†⊥</t>
+  </si>
+  <si>
+    <t>https://pubs.acs.org/doi/abs/10.1021/jacs.7b02622</t>
+  </si>
+  <si>
+    <t>VASP</t>
+  </si>
+  <si>
+    <t>Ab initio molecular dynamics for liquid metals</t>
+  </si>
+  <si>
+    <t>G. Kresse and J. Hafner</t>
+  </si>
+  <si>
+    <t>https://journals.aps.org/prb/abstract/10.1103/PhysRevB.47.558</t>
+  </si>
+  <si>
+    <t>References</t>
+  </si>
+  <si>
+    <t>Efficiency of ab-initio total energy calculations for metals and semiconductors using a plane-wave basis set</t>
+  </si>
+  <si>
+    <t>G.KresseaJ.Furthmüllerb</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/abs/pii/0927025696000080</t>
+  </si>
+  <si>
+    <t>Efficient iterative schemes for ab initio total-energy calculations using a plane-wave basis set</t>
+  </si>
+  <si>
+    <t>G. Kresse and J. Furthmüller</t>
+  </si>
+  <si>
+    <t>https://journals.aps.org/prb/abstract/10.1103/PhysRevB.54.11169</t>
+  </si>
+  <si>
+    <t>PBE Ref</t>
+  </si>
+  <si>
+    <t>Generalized Gradient Approximation Made Simple</t>
+  </si>
+  <si>
+    <t>PAW pseudopotentials</t>
+  </si>
+  <si>
+    <t>Projector augmented-wave method</t>
+  </si>
+  <si>
+    <t>P. E. Blöchl</t>
+  </si>
+  <si>
+    <t>https://journals.aps.org/prb/abstract/10.1103/PhysRevB.50.17953</t>
+  </si>
+  <si>
+    <t>Adsorbate-substrate and adsorbate-adsorbate interactions of Na and K adlayers on Al(111)</t>
+  </si>
+  <si>
+    <t>Jörg Neugebauer and Matthias Scheffler</t>
+  </si>
+  <si>
+    <t>https://journals.aps.org/prb/abstract/10.1103/PhysRevB.46.16067</t>
+  </si>
+  <si>
+    <t>Special points for Brillouin-zone integrations</t>
+  </si>
+  <si>
+    <t>Hendrik J. Monkhorstand James D. Pack</t>
+  </si>
+  <si>
+    <t>https://journals.aps.org/prb/abstract/10.1103/PhysRevB.13.5188</t>
   </si>
 </sst>
 </file>
@@ -826,7 +970,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -881,6 +1025,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0CECE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDD7EE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -904,7 +1066,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -955,6 +1117,15 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1340,10 +1511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK73"/>
+  <dimension ref="A1:AMK102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="H70" sqref="H70"/>
+    <sheetView tabSelected="1" topLeftCell="D72" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="H88" sqref="H88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1351,7 +1522,7 @@
     <col min="1" max="1" width="10.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="4.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="40.5703125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="91.85546875" style="4" customWidth="1"/>
     <col min="5" max="5" width="21.7109375" style="3" customWidth="1"/>
     <col min="6" max="6" width="13.5703125" style="3" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" style="3" customWidth="1"/>
@@ -2217,7 +2388,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="49" spans="2:10">
+    <row r="49" spans="2:10" ht="15">
       <c r="C49" s="3">
         <v>46</v>
       </c>
@@ -2227,7 +2398,7 @@
       <c r="E49" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="F49" s="22" t="s">
         <v>150</v>
       </c>
       <c r="H49" s="3">
@@ -2724,6 +2895,316 @@
       </c>
       <c r="H73" s="3">
         <v>1979</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="15">
+      <c r="C74" s="3">
+        <v>71</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="F74" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="H74" s="3">
+        <v>2019</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="15">
+      <c r="B75" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="C75" s="3">
+        <v>72</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="F75" s="22" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="15">
+      <c r="B76" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="C76" s="3">
+        <v>73</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="F76" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="H76" s="3">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="15">
+      <c r="B77" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="C77" s="3">
+        <v>74</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="F77" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="H77" s="3">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="15">
+      <c r="B78" s="30"/>
+      <c r="C78" s="3">
+        <v>75</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="F78" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="H78" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="15">
+      <c r="B79" s="30"/>
+      <c r="C79" s="3">
+        <v>76</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F79" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="H79" s="3">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="15">
+      <c r="B80" s="30"/>
+      <c r="C80" s="3">
+        <v>77</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F80" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="H80" s="3">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" ht="15">
+      <c r="B81" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="C81" s="3">
+        <v>78</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="F81" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="H81" s="3">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" ht="15">
+      <c r="B82" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="C82" s="3">
+        <v>79</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="F82" s="22" t="s">
+        <v>275</v>
+      </c>
+      <c r="H82" s="3">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" ht="15">
+      <c r="B83" s="31"/>
+      <c r="C83" s="3">
+        <v>80</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="F83" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="H83" s="3">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" ht="15">
+      <c r="B84" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C84" s="3">
+        <v>81</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" ht="15">
+      <c r="B85" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C85" s="3">
+        <v>82</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="F85" s="22" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" ht="15">
+      <c r="B86" s="32"/>
+      <c r="C86" s="3">
+        <v>83</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="F86" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="H86" s="3">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" ht="15">
+      <c r="B87" s="32"/>
+      <c r="C87" s="3">
+        <v>84</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="F87" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="H87" s="3">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" ht="15"/>
+    <row r="89" spans="2:8" ht="15"/>
+    <row r="92" spans="2:8">
+      <c r="C92" s="3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8">
+      <c r="C93" s="3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8">
+      <c r="C94" s="3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8">
+      <c r="C95" s="3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8">
+      <c r="C96" s="3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3">
+      <c r="C97" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3">
+      <c r="C98" s="3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3">
+      <c r="C99" s="3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="100" spans="3:3">
+      <c r="C100" s="3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="101" spans="3:3">
+      <c r="C101" s="3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="102" spans="3:3">
+      <c r="C102" s="3">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2756,9 +3237,23 @@
     <hyperlink ref="F71" r:id="rId26" xr:uid="{62FAA820-32EA-4255-943E-E779FAD26734}"/>
     <hyperlink ref="F72" r:id="rId27" xr:uid="{DB082187-12BA-4761-8828-97D3C1DDED72}"/>
     <hyperlink ref="F73" r:id="rId28" xr:uid="{AC32DF83-13CC-4DA3-9361-749EA110261E}"/>
+    <hyperlink ref="F74" r:id="rId29" xr:uid="{0B0F8097-BFDD-4A8A-9DC0-697D13A101BD}"/>
+    <hyperlink ref="F49" r:id="rId30" xr:uid="{4A866E73-92DB-4A06-9BBD-B94EA984F13F}"/>
+    <hyperlink ref="F75" r:id="rId31" xr:uid="{0E1A704B-ECE2-4F06-8BE9-5ABC6350DFD2}"/>
+    <hyperlink ref="F76" r:id="rId32" xr:uid="{88646A96-024F-4B35-9DF6-8869FF8F5056}"/>
+    <hyperlink ref="F77" r:id="rId33" xr:uid="{4C22AD5F-3676-4485-B779-5F417E9713CC}"/>
+    <hyperlink ref="F78" r:id="rId34" xr:uid="{F3813F97-754D-4609-B23C-3A702B6B977C}"/>
+    <hyperlink ref="F80" r:id="rId35" xr:uid="{083AA9F5-7F62-47B3-AAF5-6BDC79241F60}"/>
+    <hyperlink ref="F79" r:id="rId36" xr:uid="{6284F8A4-C0EE-49A9-B0D0-230E096C207A}"/>
+    <hyperlink ref="F81" r:id="rId37" xr:uid="{2F9CB23C-52C8-449E-A923-B24383076B7B}"/>
+    <hyperlink ref="F82" r:id="rId38" xr:uid="{6A392E1F-C37D-4E4B-ADC6-3B98144DEF19}"/>
+    <hyperlink ref="F83" r:id="rId39" xr:uid="{465A2431-B0BA-49FC-BFDD-8A34E154FDD9}"/>
+    <hyperlink ref="F85" r:id="rId40" xr:uid="{B9782061-FE28-4CD3-88D7-D0896557717F}"/>
+    <hyperlink ref="F86" r:id="rId41" xr:uid="{91988745-6601-4F3E-85C4-B5FE73B5D909}"/>
+    <hyperlink ref="F87" r:id="rId42" xr:uid="{B54A9F65-03B6-4210-BCBF-9774D2CC6F16}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <picture r:id="rId29"/>
+  <picture r:id="rId43"/>
 </worksheet>
 </file>
--- a/01_references/ref_lst.xlsx
+++ b/01_references/ref_lst.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22318"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22401"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -16,14 +16,16 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Sheet1!$E$9:$H$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Sheet1!$F$9:$I$38</definedName>
   </definedNames>
   <calcPr calcId="191028" iterateDelta="1E-4" calcCompleted="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="318">
   <si>
     <t>Reference Table</t>
   </si>
@@ -42,6 +44,9 @@
     <t>Read</t>
   </si>
   <si>
+    <t>Cited?</t>
+  </si>
+  <si>
     <t>Rating</t>
   </si>
   <si>
@@ -198,6 +203,9 @@
     <t>TJ. Phys. Chem. C</t>
   </si>
   <si>
+    <t>**********</t>
+  </si>
+  <si>
     <t>A highly active and stable IrOx/SrIrO3 catalyst for the oxygen evolution reaction</t>
   </si>
   <si>
@@ -213,9 +221,6 @@
     <t>Chris and Michal</t>
   </si>
   <si>
-    <t>**********</t>
-  </si>
-  <si>
     <t>Evidence for anionic redox activity in a tridimensional-ordered Li-rich positive electrode β-Li2IrO3</t>
   </si>
   <si>
@@ -907,13 +912,91 @@
   </si>
   <si>
     <t>https://journals.aps.org/prb/abstract/10.1103/PhysRevB.13.5188</t>
+  </si>
+  <si>
+    <t>Thermodynamic limit for synthesis of metastable inorganic materials</t>
+  </si>
+  <si>
+    <t>Muratahan Aykol1,*, Shyam S. Dwaraknath1, Wenhao Sun2 and Kristin A. Persson1,3,†</t>
+  </si>
+  <si>
+    <t>https://advances.sciencemag.org/content/4/4/eaaq0148</t>
+  </si>
+  <si>
+    <t>Murat's paper on limits of metastability</t>
+  </si>
+  <si>
+    <t>Towards a Design of Active Oxygen Evolution Catalysts: Insights from Automated Density Functional Theory Calculations and Machine Learning</t>
+  </si>
+  <si>
+    <t>Seoin Back, Kevin Tran, Zachary Ulissi</t>
+  </si>
+  <si>
+    <t>https://chemrxiv.org/articles/Towards_a_Design_of_Active_Oxygen_Evolution_Catalysts_Insights_from_Automated_Density_Functional_Theory_Calculations_and_Machine_Learning/7926869/1?file=14750501</t>
+  </si>
+  <si>
+    <t>Seoin's IrOx paper</t>
+  </si>
+  <si>
+    <t>Thermochemical Data of Pure Substances, Third Edition</t>
+  </si>
+  <si>
+    <t>Ihsan Barin</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/book/10.1002/9783527619825</t>
+  </si>
+  <si>
+    <t>Topology-based crystal structure generator</t>
+  </si>
+  <si>
+    <t>Author links open overlay panelPavel V.BushlanovabVladislav A.BlatovcdArtem R.Oganov</t>
+  </si>
+  <si>
+    <t>https://www-sciencedirect-com.stanford.idm.oclc.org/science/article/pii/S0010465518303308?via%3Dihub</t>
+  </si>
+  <si>
+    <t>Was made aware by TRI people</t>
+  </si>
+  <si>
+    <t>VERY SIMILAR</t>
+  </si>
+  <si>
+    <t>Crystal structure prediction accelerated by Bayesian optimization</t>
+  </si>
+  <si>
+    <t>Tomoki Yamashita, Nobuya Sato, Hiori Kino, Takashi Miyake, Koji Tsuda, and Tamio Oguchi</t>
+  </si>
+  <si>
+    <t>https://journals.aps.org/prmaterials/abstract/10.1103/PhysRevMaterials.2.013803</t>
+  </si>
+  <si>
+    <t>Exponential multiplicity of inherent structures</t>
+  </si>
+  <si>
+    <t>Frank H. Stillinger</t>
+  </si>
+  <si>
+    <t>https://journals.aps.org/pre/abstract/10.1103/PhysRevE.59.48</t>
+  </si>
+  <si>
+    <t>Number of possible polymorphs rises with system size</t>
+  </si>
+  <si>
+    <t>Crystal structure prediction from first principles</t>
+  </si>
+  <si>
+    <t>Scott M. Woodley; Richard Catlow</t>
+  </si>
+  <si>
+    <t>https://www-nature-com.stanford.idm.oclc.org/articles/nmat2321</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -969,8 +1052,14 @@
       <name val="Futura LT"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Futura LT"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1043,6 +1132,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9D08E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1066,7 +1161,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1128,6 +1223,11 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1511,43 +1611,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK102"/>
+  <dimension ref="A1:AML102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D72" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="H88" sqref="H88"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="G94" sqref="G94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="4.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="91.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="3" customWidth="1"/>
-    <col min="8" max="9" width="9" style="3" customWidth="1"/>
-    <col min="10" max="10" width="6" style="3" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" style="3" customWidth="1"/>
-    <col min="12" max="1025" width="9" style="3" customWidth="1"/>
+    <col min="1" max="1" width="14" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="4.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="91.85546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" style="3" customWidth="1"/>
+    <col min="9" max="10" width="9" style="3" customWidth="1"/>
+    <col min="11" max="11" width="6" style="3" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" style="3" customWidth="1"/>
+    <col min="13" max="1026" width="9" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.5">
+    <row r="1" spans="1:12" ht="23.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="B1" s="5"/>
+    </row>
+    <row r="2" spans="1:12" ht="15">
       <c r="A2" s="3"/>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" ht="15">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -1565,1695 +1668,1830 @@
       <c r="H3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="8" t="s">
         <v>10</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="15">
-      <c r="C4" s="3">
+      <c r="L3" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15">
+      <c r="D4" s="3">
         <v>1</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="3">
+        <v>2017</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15">
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="9">
+        <v>2</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1996</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="3">
+        <v>3</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="3">
+        <v>2015</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15">
+      <c r="D7" s="3">
+        <v>4</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="3">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15">
+      <c r="C8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="3">
+        <v>5</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="3">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15">
+      <c r="D9" s="3">
+        <v>6</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15">
+      <c r="C10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="10">
+        <v>7</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="12">
+        <v>2013</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15">
+      <c r="D11" s="3">
+        <v>8</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="3">
+        <v>2016</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15">
+      <c r="C12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="13">
+        <v>9</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="3">
+        <v>2001</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15">
+      <c r="D13" s="3">
+        <v>10</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" s="3">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15">
+      <c r="D14" s="3">
+        <v>11</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" s="3">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15">
+      <c r="D15" s="12">
         <v>12</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I15" s="3">
+        <v>2017</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15">
+      <c r="D16" s="3">
         <v>13</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="E16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I16" s="3">
+        <v>2018</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15">
+      <c r="C17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="14">
         <v>14</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="E17" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I17" s="3">
+        <v>2016</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15">
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="23">
         <v>15</v>
       </c>
-      <c r="H4" s="3">
+      <c r="E18" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I18" s="3">
         <v>2017</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="K18" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15">
+      <c r="D19" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="B5" s="2" t="s">
+      <c r="E19" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I19" s="3">
+        <v>2018</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15">
+      <c r="D20" s="14">
         <v>17</v>
       </c>
-      <c r="C5" s="9">
-        <v>2</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="E20" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I20" s="3">
+        <v>2017</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15">
+      <c r="D21" s="12">
         <v>18</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E21" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I21" s="3">
+        <v>2017</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15">
+      <c r="D22" s="3">
         <v>19</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="E22" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I22" s="3">
+        <v>2015</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15">
+      <c r="D23" s="3">
         <v>20</v>
       </c>
-      <c r="H5" s="3">
-        <v>1996</v>
-      </c>
-      <c r="J5" s="3" t="s">
+      <c r="E23" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="I23" s="3">
+        <v>2019</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15">
+      <c r="D24" s="12">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1" t="s">
+      <c r="E24" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I24" s="3">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15">
+      <c r="D25" s="12">
         <v>22</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="E25" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I25" s="3">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15">
+      <c r="D26" s="12">
         <v>23</v>
       </c>
-      <c r="C6" s="3">
-        <v>3</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="E26" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I26" s="3">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15">
+      <c r="D27" s="12">
         <v>24</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E27" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I27" s="3">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15">
+      <c r="D28" s="3">
         <v>25</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="E28" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I28" s="3">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15">
+      <c r="D29" s="3">
         <v>26</v>
       </c>
-      <c r="H6" s="3">
-        <v>2015</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="C7" s="3">
-        <v>4</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="E29" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I29" s="3">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15">
+      <c r="D30" s="3">
         <v>27</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="3">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="B8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="3">
-        <v>5</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="3">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="C9" s="3">
-        <v>6</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="B10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="10">
-        <v>7</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="12">
-        <v>2013</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="C11" s="3">
-        <v>8</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="3">
-        <v>2016</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="B12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="13">
-        <v>9</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="3">
-        <v>2001</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="C13" s="3">
-        <v>10</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" s="3">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="C14" s="3">
-        <v>11</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H14" s="3">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="C15" s="12">
-        <v>12</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H15" s="3">
-        <v>2017</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="C16" s="3">
-        <v>13</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H16" s="3">
-        <v>2018</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="15">
-      <c r="C17" s="14">
-        <v>14</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H17" s="3">
-        <v>2016</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="15">
-      <c r="A18" s="24"/>
-      <c r="B18" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="23">
-        <v>15</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H18" s="3">
-        <v>2017</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="C19" s="3">
-        <v>16</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H19" s="3">
-        <v>2018</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="C20" s="14">
-        <v>17</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H20" s="3">
-        <v>2017</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="C21" s="12">
-        <v>18</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H21" s="3">
-        <v>2017</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="C22" s="3">
-        <v>19</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H22" s="3">
-        <v>2015</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="C23" s="3">
-        <v>20</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="H23" s="3">
-        <v>2019</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="C24" s="12">
-        <v>21</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H24" s="3">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="C25" s="12">
-        <v>22</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="H25" s="3">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="C26" s="12">
-        <v>23</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H26" s="3">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="C27" s="12">
-        <v>24</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="H27" s="3">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="C28" s="3">
-        <v>25</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H28" s="3">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="C29" s="3">
-        <v>26</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="H29" s="3">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="C30" s="3">
-        <v>27</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="H30" s="3">
+      <c r="F30" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I30" s="3">
         <v>2017</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
-      <c r="C31" s="12">
+    <row r="31" spans="1:11" ht="15">
+      <c r="D31" s="12">
         <v>28</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="H31" s="3">
+      <c r="F31" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I31" s="3">
         <v>2018</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
-      <c r="C32" s="3">
+    <row r="32" spans="1:11" ht="15">
+      <c r="D32" s="3">
         <v>29</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="H32" s="3">
+      <c r="F32" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I32" s="3">
         <v>2018</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
-      <c r="C33" s="3">
+    <row r="33" spans="1:11" ht="15">
+      <c r="D33" s="3">
         <v>30</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>100</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="H33" s="3">
+      <c r="F33" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I33" s="3">
         <v>2016</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
-      <c r="C34" s="3">
+    <row r="34" spans="1:11" ht="15">
+      <c r="D34" s="3">
         <v>31</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="H34" s="3">
+      <c r="F34" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I34" s="3">
         <v>2015</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
-      <c r="C35" s="3">
+    <row r="35" spans="1:11" ht="15">
+      <c r="D35" s="3">
         <v>32</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>104</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="C36" s="3">
+      <c r="F35" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="15">
+      <c r="D36" s="3">
         <v>33</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>106</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="H36" s="3">
+      <c r="F36" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="I36" s="3">
         <v>2018</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15">
-      <c r="C37" s="3">
+    <row r="37" spans="1:11" ht="15">
+      <c r="D37" s="3">
         <v>34</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="H37" s="3">
+      <c r="F37" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I37" s="3">
         <v>2019</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
-      <c r="C38" s="3">
+    <row r="38" spans="1:11" ht="15">
+      <c r="D38" s="3">
         <v>35</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>110</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H38" s="3">
+      <c r="F38" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="I38" s="3">
         <v>2018</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
-      <c r="B39" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C39" s="3">
+    <row r="39" spans="1:11" ht="15">
+      <c r="C39" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D39" s="3">
         <v>36</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="H39" s="3">
+      <c r="F39" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I39" s="3">
         <v>2015</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
-      <c r="C40" s="3">
+    <row r="40" spans="1:11" ht="15">
+      <c r="D40" s="3">
         <v>37</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="H40" s="3">
+      <c r="F40" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I40" s="3">
         <v>2008</v>
       </c>
-      <c r="J40" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="B41" s="2" t="s">
+      <c r="K40" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C41" s="3">
+    </row>
+    <row r="41" spans="1:11" ht="15">
+      <c r="C41" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D41" s="3">
         <v>38</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="G41" s="3" t="s">
+      <c r="E41" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="H41" s="3">
+      <c r="H41" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I41" s="3">
         <v>2018</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="C42" s="3">
+      <c r="K41" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="15">
+      <c r="D42" s="3">
         <v>39</v>
       </c>
-      <c r="D42" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E42" s="3" t="s">
+      <c r="E42" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="H42" s="3">
+      <c r="F42" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I42" s="3">
         <v>2014</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
-      <c r="B43" s="2" t="s">
+    <row r="43" spans="1:11" ht="15">
+      <c r="C43" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D43" s="13">
+        <v>40</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I43" s="3">
+        <v>2018</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="15">
+      <c r="A44" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="B44" s="15"/>
+      <c r="C44" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" s="3">
+        <v>41</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="I44" s="3">
+        <v>2019</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="15">
+      <c r="A45" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B45" s="15"/>
+      <c r="C45" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D45" s="3">
+        <v>42</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G45" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="I45" s="3">
+        <v>2019</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="15">
+      <c r="A46" s="15"/>
+      <c r="B46" s="15"/>
+      <c r="D46" s="3">
+        <v>43</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G46" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="H46" s="16"/>
+      <c r="I46" s="3">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="15">
+      <c r="A47" s="15"/>
+      <c r="B47" s="15"/>
+      <c r="D47" s="3">
+        <v>44</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="G47" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="I47" s="3">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="15">
+      <c r="A48" s="15"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D48" s="17">
+        <v>45</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G48" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="I48" s="3">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="49" spans="3:11" ht="15">
+      <c r="D49" s="3">
+        <v>46</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G49" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="I49" s="3">
+        <v>2011</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="50" spans="3:11" ht="15">
+      <c r="D50" s="3">
+        <v>47</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F50" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="I50" s="3">
+        <v>1999</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="51" spans="3:11" ht="15">
+      <c r="D51" s="3">
+        <v>48</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F51" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="I51" s="3">
+        <v>2017</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="52" spans="3:11" ht="15">
+      <c r="D52" s="3">
+        <v>49</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="G52" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="I52" s="3">
+        <v>2019</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="53" spans="3:11" ht="15">
+      <c r="D53" s="3">
+        <v>50</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="G53" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I53" s="3">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="54" spans="3:11" ht="15">
+      <c r="D54" s="3">
+        <v>51</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G54" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I54" s="3">
+        <v>2017</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="55" spans="3:11" ht="30">
+      <c r="D55" s="3">
+        <v>52</v>
+      </c>
+      <c r="E55" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="F55" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="G55" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="I55" s="3">
+        <v>2017</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="56" spans="3:11" ht="15">
+      <c r="D56" s="3">
+        <v>53</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G56" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="I56" s="3">
+        <v>1976</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="57" spans="3:11" ht="15">
+      <c r="D57" s="3">
+        <v>54</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G57" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="I57" s="3">
+        <v>2013</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="58" spans="3:11" ht="15">
+      <c r="D58" s="3">
+        <v>55</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="G58" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="I58" s="3">
+        <v>2019</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="59" spans="3:11" ht="15">
+      <c r="D59" s="3">
+        <v>56</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G59" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I59" s="3">
+        <v>1990</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="60" spans="3:11" ht="15">
+      <c r="D60" s="3">
+        <v>57</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="G60" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="I60" s="3">
+        <v>2014</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="61" spans="3:11" ht="15">
+      <c r="D61" s="3">
+        <v>58</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G61" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="I61" s="3">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="62" spans="3:11" ht="15">
+      <c r="D62" s="3">
         <v>59</v>
       </c>
-      <c r="C43" s="13">
-        <v>40</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H43" s="3">
-        <v>2018</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C44" s="3">
-        <v>41</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="H44" s="3">
+      <c r="E62" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G62" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="I62" s="3">
+        <v>2017</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="63" spans="3:11" ht="15">
+      <c r="D63" s="3">
+        <v>60</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="G63" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="I63" s="3">
         <v>2019</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C45" s="3">
-        <v>42</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="F45" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="H45" s="3">
+    </row>
+    <row r="64" spans="3:11" ht="15">
+      <c r="C64" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D64" s="27">
+        <v>61</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="G64" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="I64" s="3">
         <v>2019</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="15"/>
-      <c r="C46" s="3">
-        <v>43</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F46" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="G46" s="16"/>
-      <c r="H46" s="3">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="15"/>
-      <c r="C47" s="3">
-        <v>44</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="F47" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="H47" s="3">
+      <c r="K64" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="15">
+      <c r="A65" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D65" s="3">
+        <v>62</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="G65" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="I65" s="3">
         <v>2019</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="15"/>
-      <c r="B48" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C48" s="17">
-        <v>45</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F48" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="H48" s="3">
+    <row r="66" spans="1:11" ht="15">
+      <c r="C66" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D66" s="28">
+        <v>63</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G66" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="I66" s="3">
         <v>2019</v>
       </c>
-    </row>
-    <row r="49" spans="2:10" ht="15">
-      <c r="C49" s="3">
-        <v>46</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="F49" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="H49" s="3">
-        <v>2011</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10">
-      <c r="C50" s="3">
-        <v>47</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E50" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="H50" s="3">
-        <v>1999</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10">
-      <c r="C51" s="3">
-        <v>48</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="E51" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="H51" s="3">
+      <c r="K66" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="15">
+      <c r="D67" s="3">
+        <v>64</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="G67" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="I67" s="3">
+        <v>2019</v>
+      </c>
+      <c r="K67" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="15">
+      <c r="A68" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C68" s="29"/>
+      <c r="D68" s="3">
+        <v>65</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="G68" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="I68" s="3">
+        <v>2015</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="15">
+      <c r="C69" s="29"/>
+      <c r="D69" s="3">
+        <v>66</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G69" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="I69" s="3">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="15">
+      <c r="C70" s="29"/>
+      <c r="D70" s="3">
+        <v>67</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="G70" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="I70" s="3">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="15">
+      <c r="C71" s="29"/>
+      <c r="D71" s="3">
+        <v>68</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="G71" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="I71" s="3">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="15">
+      <c r="C72" s="29"/>
+      <c r="D72" s="3">
+        <v>69</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="G72" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="I72" s="3">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="15">
+      <c r="C73" s="29"/>
+      <c r="D73" s="3">
+        <v>70</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="G73" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="I73" s="3">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="15">
+      <c r="D74" s="3">
+        <v>71</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="G74" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="I74" s="3">
+        <v>2019</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="15">
+      <c r="C75" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="D75" s="3">
+        <v>72</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="G75" s="22" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="15">
+      <c r="C76" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="D76" s="3">
+        <v>73</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="G76" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="I76" s="3">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="15">
+      <c r="C77" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="D77" s="3">
+        <v>74</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="G77" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="I77" s="3">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="15">
+      <c r="C78" s="30"/>
+      <c r="D78" s="3">
+        <v>75</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="G78" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="I78" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="15">
+      <c r="C79" s="30"/>
+      <c r="D79" s="3">
+        <v>76</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G79" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="I79" s="3">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="15">
+      <c r="C80" s="30"/>
+      <c r="D80" s="3">
+        <v>77</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="G80" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="I80" s="3">
         <v>2017</v>
       </c>
-      <c r="J51" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10">
-      <c r="C52" s="3">
-        <v>49</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="F52" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="H52" s="3">
-        <v>2019</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10">
-      <c r="C53" s="3">
-        <v>50</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="F53" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="H53" s="3">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="54" spans="2:10" ht="15">
-      <c r="C54" s="3">
-        <v>51</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="F54" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="H54" s="3">
-        <v>2017</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="55" spans="2:10" ht="15">
-      <c r="C55" s="3">
-        <v>52</v>
-      </c>
-      <c r="D55" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="E55" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="F55" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="H55" s="3">
-        <v>2017</v>
-      </c>
-      <c r="J55" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="56" spans="2:10" ht="15">
-      <c r="C56" s="3">
-        <v>53</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="F56" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="H56" s="3">
-        <v>1976</v>
-      </c>
-      <c r="J56" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10" ht="15">
-      <c r="C57" s="3">
-        <v>54</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="F57" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="H57" s="3">
-        <v>2013</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="58" spans="2:10" ht="15">
-      <c r="C58" s="3">
-        <v>55</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="F58" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="H58" s="3">
-        <v>2019</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="59" spans="2:10" ht="15">
-      <c r="C59" s="3">
-        <v>56</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="F59" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H59" s="3">
-        <v>1990</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="60" spans="2:10" ht="15">
-      <c r="C60" s="3">
-        <v>57</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="F60" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="H60" s="3">
-        <v>2014</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="61" spans="2:10" ht="15">
-      <c r="C61" s="3">
-        <v>58</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="F61" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="H61" s="3">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="62" spans="2:10" ht="15">
-      <c r="C62" s="3">
-        <v>59</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="F62" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="H62" s="3">
-        <v>2017</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="63" spans="2:10" ht="15">
-      <c r="C63" s="3">
-        <v>60</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="F63" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="H63" s="3">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="64" spans="2:10" ht="15">
-      <c r="B64" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C64" s="27">
-        <v>61</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="F64" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="H64" s="3">
-        <v>2019</v>
-      </c>
-      <c r="J64" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="15">
-      <c r="A65" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C65" s="3">
-        <v>62</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="F65" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="H65" s="3">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="15">
-      <c r="B66" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C66" s="28">
-        <v>63</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F66" s="22" t="s">
-        <v>217</v>
-      </c>
-      <c r="H66" s="3">
-        <v>2019</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="15">
-      <c r="C67" s="3">
-        <v>64</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="F67" s="22" t="s">
-        <v>221</v>
-      </c>
-      <c r="H67" s="3">
-        <v>2019</v>
-      </c>
-      <c r="J67" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" ht="15">
-      <c r="A68" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B68" s="29"/>
-      <c r="C68" s="3">
-        <v>65</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="F68" s="22" t="s">
-        <v>226</v>
-      </c>
-      <c r="H68" s="3">
-        <v>2015</v>
-      </c>
-      <c r="J68" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" ht="15">
-      <c r="B69" s="29"/>
-      <c r="C69" s="3">
-        <v>66</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="F69" s="22" t="s">
-        <v>230</v>
-      </c>
-      <c r="H69" s="3">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="15">
-      <c r="B70" s="29"/>
-      <c r="C70" s="3">
-        <v>67</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="F70" s="22" t="s">
-        <v>233</v>
-      </c>
-      <c r="H70" s="3">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="15">
-      <c r="B71" s="29"/>
-      <c r="C71" s="3">
-        <v>68</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="F71" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="H71" s="3">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" ht="15">
-      <c r="B72" s="29"/>
-      <c r="C72" s="3">
-        <v>69</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="F72" s="22" t="s">
-        <v>239</v>
-      </c>
-      <c r="H72" s="3">
-        <v>1978</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="15">
-      <c r="B73" s="29"/>
-      <c r="C73" s="3">
-        <v>70</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="F73" s="22" t="s">
-        <v>242</v>
-      </c>
-      <c r="H73" s="3">
-        <v>1979</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" ht="15">
-      <c r="C74" s="3">
-        <v>71</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="F74" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="H74" s="3">
-        <v>2019</v>
-      </c>
-      <c r="J74" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" ht="15">
-      <c r="B75" s="30" t="s">
-        <v>247</v>
-      </c>
-      <c r="C75" s="3">
-        <v>72</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="F75" s="22" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" ht="15">
-      <c r="B76" s="30" t="s">
-        <v>251</v>
-      </c>
-      <c r="C76" s="3">
-        <v>73</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="F76" s="22" t="s">
-        <v>254</v>
-      </c>
-      <c r="H76" s="3">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" ht="15">
-      <c r="B77" s="30" t="s">
-        <v>255</v>
-      </c>
-      <c r="C77" s="3">
-        <v>74</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="F77" s="22" t="s">
-        <v>258</v>
-      </c>
-      <c r="H77" s="3">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" ht="15">
-      <c r="B78" s="30"/>
-      <c r="C78" s="3">
-        <v>75</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="F78" s="22" t="s">
-        <v>261</v>
-      </c>
-      <c r="H78" s="3">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" ht="15">
-      <c r="B79" s="30"/>
-      <c r="C79" s="3">
-        <v>76</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F79" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="H79" s="3">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" ht="15">
-      <c r="B80" s="30"/>
-      <c r="C80" s="3">
-        <v>77</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="F80" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="H80" s="3">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="81" spans="2:8" ht="15">
-      <c r="B81" s="31" t="s">
-        <v>268</v>
-      </c>
-      <c r="C81" s="3">
+    </row>
+    <row r="81" spans="1:11" ht="15">
+      <c r="C81" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="D81" s="3">
         <v>78</v>
       </c>
-      <c r="D81" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="E81" s="3" t="s">
+      <c r="E81" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="F81" s="22" t="s">
+      <c r="F81" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="H81" s="3">
+      <c r="G81" s="22" t="s">
+        <v>272</v>
+      </c>
+      <c r="I81" s="3">
         <v>1993</v>
       </c>
     </row>
-    <row r="82" spans="2:8" ht="15">
-      <c r="B82" s="31" t="s">
-        <v>272</v>
-      </c>
-      <c r="C82" s="3">
+    <row r="82" spans="1:11" ht="15">
+      <c r="C82" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="D82" s="3">
         <v>79</v>
       </c>
-      <c r="D82" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="E82" s="3" t="s">
+      <c r="E82" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="F82" s="22" t="s">
+      <c r="F82" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="H82" s="3">
+      <c r="G82" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="I82" s="3">
         <v>1996</v>
       </c>
     </row>
-    <row r="83" spans="2:8" ht="15">
-      <c r="B83" s="31"/>
-      <c r="C83" s="3">
+    <row r="83" spans="1:11" ht="15">
+      <c r="C83" s="31"/>
+      <c r="D83" s="3">
         <v>80</v>
       </c>
-      <c r="D83" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="E83" s="3" t="s">
+      <c r="E83" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="F83" s="22" t="s">
+      <c r="F83" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="H83" s="3">
+      <c r="G83" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="I83" s="3">
         <v>1996</v>
       </c>
     </row>
-    <row r="84" spans="2:8" ht="15">
-      <c r="B84" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="C84" s="3">
+    <row r="84" spans="1:11" ht="15">
+      <c r="C84" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D84" s="3">
         <v>81</v>
       </c>
-      <c r="D84" s="4" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="85" spans="2:8" ht="15">
-      <c r="B85" s="2" t="s">
+      <c r="E84" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="C85" s="3">
+    </row>
+    <row r="85" spans="1:11" ht="15">
+      <c r="C85" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D85" s="3">
         <v>82</v>
       </c>
-      <c r="D85" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="E85" s="3" t="s">
+      <c r="E85" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="F85" s="22" t="s">
+      <c r="F85" s="3" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="86" spans="2:8" ht="15">
-      <c r="B86" s="32"/>
-      <c r="C86" s="3">
+      <c r="G85" s="22" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="15">
+      <c r="C86" s="32"/>
+      <c r="D86" s="3">
         <v>83</v>
       </c>
-      <c r="D86" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="E86" s="3" t="s">
+      <c r="E86" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="F86" s="22" t="s">
+      <c r="F86" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="H86" s="3">
+      <c r="G86" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="I86" s="3">
         <v>1992</v>
       </c>
     </row>
-    <row r="87" spans="2:8" ht="15">
-      <c r="B87" s="32"/>
-      <c r="C87" s="3">
+    <row r="87" spans="1:11" ht="15">
+      <c r="C87" s="32"/>
+      <c r="D87" s="3">
         <v>84</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>288</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="F87" s="22" t="s">
+      <c r="F87" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="H87" s="3">
+      <c r="G87" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="I87" s="3">
         <v>1976</v>
       </c>
     </row>
-    <row r="88" spans="2:8" ht="15"/>
-    <row r="89" spans="2:8" ht="15"/>
-    <row r="92" spans="2:8">
-      <c r="C92" s="3">
+    <row r="88" spans="1:11" ht="15">
+      <c r="C88" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D88" s="34">
         <v>85</v>
       </c>
-    </row>
-    <row r="93" spans="2:8">
-      <c r="C93" s="3">
+      <c r="E88" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="G88" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="I88" s="3">
+        <v>2018</v>
+      </c>
+      <c r="K88" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="15">
+      <c r="C89" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D89" s="35">
         <v>86</v>
       </c>
-    </row>
-    <row r="94" spans="2:8">
-      <c r="C94" s="3">
+      <c r="E89" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="G89" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="I89" s="3">
+        <v>2019</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="15">
+      <c r="D90" s="3">
         <v>87</v>
       </c>
-    </row>
-    <row r="95" spans="2:8">
-      <c r="C95" s="3">
+      <c r="E90" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="G90" s="22" t="s">
+        <v>302</v>
+      </c>
+      <c r="I90" s="3">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="15">
+      <c r="C91" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D91" s="35">
         <v>88</v>
       </c>
-    </row>
-    <row r="96" spans="2:8">
-      <c r="C96" s="3">
+      <c r="E91" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="G91" s="22" t="s">
+        <v>305</v>
+      </c>
+      <c r="I91" s="3">
+        <v>2018</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="15">
+      <c r="A92" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D92" s="35">
         <v>89</v>
       </c>
-    </row>
-    <row r="97" spans="3:3">
-      <c r="C97" s="3">
+      <c r="E92" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="G92" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="I92" s="3">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="15">
+      <c r="B93" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D93" s="3">
         <v>90</v>
       </c>
-    </row>
-    <row r="98" spans="3:3">
-      <c r="C98" s="3">
+      <c r="E93" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="G93" s="22" t="s">
+        <v>313</v>
+      </c>
+      <c r="I93" s="3">
+        <v>1999</v>
+      </c>
+      <c r="K93" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="15">
+      <c r="D94" s="3">
         <v>91</v>
       </c>
-    </row>
-    <row r="99" spans="3:3">
-      <c r="C99" s="3">
+      <c r="E94" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="G94" s="22" t="s">
+        <v>317</v>
+      </c>
+      <c r="I94" s="3">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="15">
+      <c r="D95" s="3">
         <v>92</v>
       </c>
     </row>
-    <row r="100" spans="3:3">
-      <c r="C100" s="3">
+    <row r="96" spans="1:11" ht="15">
+      <c r="D96" s="3">
         <v>93</v>
       </c>
     </row>
-    <row r="101" spans="3:3">
-      <c r="C101" s="3">
+    <row r="97" spans="4:4" ht="15">
+      <c r="D97" s="3">
         <v>94</v>
       </c>
     </row>
-    <row r="102" spans="3:3">
-      <c r="C102" s="3">
+    <row r="98" spans="4:4" ht="15">
+      <c r="D98" s="3">
         <v>95</v>
       </c>
     </row>
+    <row r="99" spans="4:4" ht="15"/>
+    <row r="100" spans="4:4" ht="15"/>
+    <row r="101" spans="4:4" ht="15"/>
+    <row r="102" spans="4:4" ht="15"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F45" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F46" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="F47" r:id="rId3" location="secsectitle0020" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="F48" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="F52" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="F53" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="F54" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="F55" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="F56" r:id="rId9" xr:uid="{61C294A8-93CE-4EB3-B519-F890CA93FE76}"/>
-    <hyperlink ref="F57" r:id="rId10" xr:uid="{991DC90B-7BD6-4ABF-A278-D5A0460EC750}"/>
-    <hyperlink ref="F58" r:id="rId11" xr:uid="{5C6459D1-3533-4F09-BA3D-227972D6CDB6}"/>
-    <hyperlink ref="F59" r:id="rId12" xr:uid="{9D8CE753-06FA-4E18-AFB8-6A8D2AC8DD25}"/>
-    <hyperlink ref="F60" r:id="rId13" xr:uid="{B5FE6781-BC2B-4D3B-ADA1-36DC1BF2624C}"/>
-    <hyperlink ref="F61" r:id="rId14" xr:uid="{B46FD5B6-4681-40D4-A139-049856D80968}"/>
-    <hyperlink ref="F62" r:id="rId15" xr:uid="{21C268F1-45BB-4C97-AC69-12131B7183E4}"/>
-    <hyperlink ref="F63" r:id="rId16" xr:uid="{3BC1531C-E56C-4339-A77C-36A89A51D369}"/>
-    <hyperlink ref="F64" r:id="rId17" xr:uid="{CC7C5B78-C941-47A9-81CC-7DC96A33869C}"/>
-    <hyperlink ref="F65" r:id="rId18" xr:uid="{A7C4662F-A8BD-4753-ADDB-D4031464A39D}"/>
-    <hyperlink ref="F66" r:id="rId19" xr:uid="{3382ECEC-6199-4F7C-9293-D36AC9658714}"/>
-    <hyperlink ref="F67" r:id="rId20" xr:uid="{8B9324BE-F4E5-4737-A45A-5EA92A16DDEB}"/>
-    <hyperlink ref="F4" r:id="rId21" xr:uid="{2D4F4073-D716-4F4B-93C9-B684A7FC5FA0}"/>
-    <hyperlink ref="F17" r:id="rId22" xr:uid="{52237CA4-C857-4A38-BB65-8DD96480ACD3}"/>
-    <hyperlink ref="F68" r:id="rId23" xr:uid="{9B10198A-AC0E-4FC6-8775-BF40751D0098}"/>
-    <hyperlink ref="F69" r:id="rId24" xr:uid="{8AB30FE5-510C-415E-B490-1AD37234C1F4}"/>
-    <hyperlink ref="F70" r:id="rId25" xr:uid="{13B6299F-1400-43C0-820C-42452406FF76}"/>
-    <hyperlink ref="F71" r:id="rId26" xr:uid="{62FAA820-32EA-4255-943E-E779FAD26734}"/>
-    <hyperlink ref="F72" r:id="rId27" xr:uid="{DB082187-12BA-4761-8828-97D3C1DDED72}"/>
-    <hyperlink ref="F73" r:id="rId28" xr:uid="{AC32DF83-13CC-4DA3-9361-749EA110261E}"/>
-    <hyperlink ref="F74" r:id="rId29" xr:uid="{0B0F8097-BFDD-4A8A-9DC0-697D13A101BD}"/>
-    <hyperlink ref="F49" r:id="rId30" xr:uid="{4A866E73-92DB-4A06-9BBD-B94EA984F13F}"/>
-    <hyperlink ref="F75" r:id="rId31" xr:uid="{0E1A704B-ECE2-4F06-8BE9-5ABC6350DFD2}"/>
-    <hyperlink ref="F76" r:id="rId32" xr:uid="{88646A96-024F-4B35-9DF6-8869FF8F5056}"/>
-    <hyperlink ref="F77" r:id="rId33" xr:uid="{4C22AD5F-3676-4485-B779-5F417E9713CC}"/>
-    <hyperlink ref="F78" r:id="rId34" xr:uid="{F3813F97-754D-4609-B23C-3A702B6B977C}"/>
-    <hyperlink ref="F80" r:id="rId35" xr:uid="{083AA9F5-7F62-47B3-AAF5-6BDC79241F60}"/>
-    <hyperlink ref="F79" r:id="rId36" xr:uid="{6284F8A4-C0EE-49A9-B0D0-230E096C207A}"/>
-    <hyperlink ref="F81" r:id="rId37" xr:uid="{2F9CB23C-52C8-449E-A923-B24383076B7B}"/>
-    <hyperlink ref="F82" r:id="rId38" xr:uid="{6A392E1F-C37D-4E4B-ADC6-3B98144DEF19}"/>
-    <hyperlink ref="F83" r:id="rId39" xr:uid="{465A2431-B0BA-49FC-BFDD-8A34E154FDD9}"/>
-    <hyperlink ref="F85" r:id="rId40" xr:uid="{B9782061-FE28-4CD3-88D7-D0896557717F}"/>
-    <hyperlink ref="F86" r:id="rId41" xr:uid="{91988745-6601-4F3E-85C4-B5FE73B5D909}"/>
-    <hyperlink ref="F87" r:id="rId42" xr:uid="{B54A9F65-03B6-4210-BCBF-9774D2CC6F16}"/>
+    <hyperlink ref="G45" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G46" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G47" r:id="rId3" location="secsectitle0020" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G48" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G52" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G53" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G54" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="G55" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G56" r:id="rId9" xr:uid="{61C294A8-93CE-4EB3-B519-F890CA93FE76}"/>
+    <hyperlink ref="G57" r:id="rId10" xr:uid="{991DC90B-7BD6-4ABF-A278-D5A0460EC750}"/>
+    <hyperlink ref="G58" r:id="rId11" xr:uid="{5C6459D1-3533-4F09-BA3D-227972D6CDB6}"/>
+    <hyperlink ref="G59" r:id="rId12" xr:uid="{9D8CE753-06FA-4E18-AFB8-6A8D2AC8DD25}"/>
+    <hyperlink ref="G60" r:id="rId13" xr:uid="{B5FE6781-BC2B-4D3B-ADA1-36DC1BF2624C}"/>
+    <hyperlink ref="G61" r:id="rId14" xr:uid="{B46FD5B6-4681-40D4-A139-049856D80968}"/>
+    <hyperlink ref="G62" r:id="rId15" xr:uid="{21C268F1-45BB-4C97-AC69-12131B7183E4}"/>
+    <hyperlink ref="G63" r:id="rId16" xr:uid="{3BC1531C-E56C-4339-A77C-36A89A51D369}"/>
+    <hyperlink ref="G64" r:id="rId17" xr:uid="{CC7C5B78-C941-47A9-81CC-7DC96A33869C}"/>
+    <hyperlink ref="G65" r:id="rId18" xr:uid="{A7C4662F-A8BD-4753-ADDB-D4031464A39D}"/>
+    <hyperlink ref="G66" r:id="rId19" xr:uid="{3382ECEC-6199-4F7C-9293-D36AC9658714}"/>
+    <hyperlink ref="G67" r:id="rId20" xr:uid="{8B9324BE-F4E5-4737-A45A-5EA92A16DDEB}"/>
+    <hyperlink ref="G4" r:id="rId21" xr:uid="{2D4F4073-D716-4F4B-93C9-B684A7FC5FA0}"/>
+    <hyperlink ref="G17" r:id="rId22" xr:uid="{52237CA4-C857-4A38-BB65-8DD96480ACD3}"/>
+    <hyperlink ref="G68" r:id="rId23" xr:uid="{9B10198A-AC0E-4FC6-8775-BF40751D0098}"/>
+    <hyperlink ref="G69" r:id="rId24" xr:uid="{8AB30FE5-510C-415E-B490-1AD37234C1F4}"/>
+    <hyperlink ref="G70" r:id="rId25" xr:uid="{13B6299F-1400-43C0-820C-42452406FF76}"/>
+    <hyperlink ref="G71" r:id="rId26" xr:uid="{62FAA820-32EA-4255-943E-E779FAD26734}"/>
+    <hyperlink ref="G72" r:id="rId27" xr:uid="{DB082187-12BA-4761-8828-97D3C1DDED72}"/>
+    <hyperlink ref="G73" r:id="rId28" xr:uid="{AC32DF83-13CC-4DA3-9361-749EA110261E}"/>
+    <hyperlink ref="G74" r:id="rId29" xr:uid="{0B0F8097-BFDD-4A8A-9DC0-697D13A101BD}"/>
+    <hyperlink ref="G49" r:id="rId30" xr:uid="{4A866E73-92DB-4A06-9BBD-B94EA984F13F}"/>
+    <hyperlink ref="G75" r:id="rId31" xr:uid="{0E1A704B-ECE2-4F06-8BE9-5ABC6350DFD2}"/>
+    <hyperlink ref="G76" r:id="rId32" xr:uid="{88646A96-024F-4B35-9DF6-8869FF8F5056}"/>
+    <hyperlink ref="G77" r:id="rId33" xr:uid="{4C22AD5F-3676-4485-B779-5F417E9713CC}"/>
+    <hyperlink ref="G78" r:id="rId34" xr:uid="{F3813F97-754D-4609-B23C-3A702B6B977C}"/>
+    <hyperlink ref="G80" r:id="rId35" xr:uid="{083AA9F5-7F62-47B3-AAF5-6BDC79241F60}"/>
+    <hyperlink ref="G79" r:id="rId36" xr:uid="{6284F8A4-C0EE-49A9-B0D0-230E096C207A}"/>
+    <hyperlink ref="G81" r:id="rId37" xr:uid="{2F9CB23C-52C8-449E-A923-B24383076B7B}"/>
+    <hyperlink ref="G82" r:id="rId38" xr:uid="{6A392E1F-C37D-4E4B-ADC6-3B98144DEF19}"/>
+    <hyperlink ref="G83" r:id="rId39" xr:uid="{465A2431-B0BA-49FC-BFDD-8A34E154FDD9}"/>
+    <hyperlink ref="G85" r:id="rId40" xr:uid="{B9782061-FE28-4CD3-88D7-D0896557717F}"/>
+    <hyperlink ref="G86" r:id="rId41" xr:uid="{91988745-6601-4F3E-85C4-B5FE73B5D909}"/>
+    <hyperlink ref="G87" r:id="rId42" xr:uid="{B54A9F65-03B6-4210-BCBF-9774D2CC6F16}"/>
+    <hyperlink ref="G88" r:id="rId43" xr:uid="{2B871155-C7F5-4739-BE06-76F2262CC180}"/>
+    <hyperlink ref="G89" r:id="rId44" xr:uid="{86CA2A23-A96C-41C3-97FB-F02BECB9F3EA}"/>
+    <hyperlink ref="G90" r:id="rId45" xr:uid="{72107A3E-8CFE-4225-A678-B57714DF5E69}"/>
+    <hyperlink ref="G91" r:id="rId46" xr:uid="{CE499FFD-D99E-420E-9ABD-04FC059DA436}"/>
+    <hyperlink ref="G92" r:id="rId47" xr:uid="{4361CA42-5427-4F09-BF65-F25D57003D77}"/>
+    <hyperlink ref="G93" r:id="rId48" xr:uid="{703E70AB-49D4-47D6-A4DA-B6178BD9505D}"/>
+    <hyperlink ref="G94" r:id="rId49" xr:uid="{A6E22A6C-9B60-41FF-A750-48E06F64A74C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <picture r:id="rId43"/>
+  <picture r:id="rId50"/>
 </worksheet>
 </file>
--- a/01_references/ref_lst.xlsx
+++ b/01_references/ref_lst.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22505"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="329">
   <si>
     <t>Reference Table</t>
   </si>
@@ -1011,6 +1011,18 @@
   </si>
   <si>
     <t>Has DFT calculated Pyrite, Columbite, Brookite, Anatase, Hollandite phases</t>
+  </si>
+  <si>
+    <t>Operando XANES from first-principles and its application to iridium oxide</t>
+  </si>
+  <si>
+    <t>Francesco Nattino; Nicola Marzari</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/1912.09769</t>
+  </si>
+  <si>
+    <t>Stability of IrO2 facets, Michal gave me this</t>
   </si>
 </sst>
 </file>
@@ -1634,8 +1646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AML102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="E98" sqref="E98"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="K98" sqref="K98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3472,22 +3484,37 @@
         <v>324</v>
       </c>
     </row>
-    <row r="97" spans="4:5" ht="15">
+    <row r="97" spans="4:11" ht="15">
       <c r="D97" s="3">
         <v>94</v>
       </c>
-    </row>
-    <row r="98" spans="4:5" ht="15">
+      <c r="E97" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="G97" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="I97" s="3">
+        <v>2019</v>
+      </c>
+      <c r="K97" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="98" spans="4:11" ht="15">
       <c r="D98" s="3">
         <v>95</v>
       </c>
     </row>
-    <row r="99" spans="4:5" ht="15">
+    <row r="99" spans="4:11" ht="15">
       <c r="E99" s="3"/>
     </row>
-    <row r="100" spans="4:5" ht="15"/>
-    <row r="101" spans="4:5" ht="15"/>
-    <row r="102" spans="4:5" ht="15"/>
+    <row r="100" spans="4:11" ht="15"/>
+    <row r="101" spans="4:11" ht="15"/>
+    <row r="102" spans="4:11" ht="15"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G45" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -3541,9 +3568,10 @@
     <hyperlink ref="G94" r:id="rId49" xr:uid="{A6E22A6C-9B60-41FF-A750-48E06F64A74C}"/>
     <hyperlink ref="G95" r:id="rId50" xr:uid="{048882EB-E0BA-47C2-BA50-F807A5B9CD0D}"/>
     <hyperlink ref="G96" r:id="rId51" location="!divAbstract" xr:uid="{9BDC94F0-704E-4A01-B18D-4345619B9844}"/>
+    <hyperlink ref="G97" r:id="rId52" xr:uid="{450E00A8-32FB-4F03-A90D-DCA115497AB9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <picture r:id="rId52"/>
+  <picture r:id="rId53"/>
 </worksheet>
 </file>